--- a/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,34 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,20 +705,23 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>105000</v>
+        <v>182600</v>
       </c>
       <c r="E8" s="3">
-        <v>65400</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>102400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>63800</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -732,20 +735,23 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>73900</v>
+        <v>130800</v>
       </c>
       <c r="E9" s="3">
-        <v>42200</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>72100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>41100</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -759,20 +765,23 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>31100</v>
+        <v>51900</v>
       </c>
       <c r="E10" s="3">
-        <v>23200</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>30300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>22700</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,19 +812,20 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>26400</v>
+        <v>38500</v>
       </c>
       <c r="E12" s="3">
-        <v>19100</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+        <v>25800</v>
+      </c>
+      <c r="F12" s="3">
+        <v>18600</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,9 +899,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,19 +943,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>136400</v>
+        <v>266700</v>
       </c>
       <c r="E17" s="3">
-        <v>84000</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>133100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>82000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -944,20 +970,23 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-31400</v>
+        <v>-84100</v>
       </c>
       <c r="E18" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-30700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-18200</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,19 +1017,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>-4000</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1011,20 +1044,23 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-27500</v>
+        <v>-82400</v>
       </c>
       <c r="E21" s="3">
-        <v>-22300</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-26800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-21800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1038,9 +1074,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,20 +1104,23 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-28400</v>
+        <v>-83800</v>
       </c>
       <c r="E23" s="3">
-        <v>-22800</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>-27700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-22200</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1092,21 +1134,24 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,20 +1194,23 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-30000</v>
+        <v>-84200</v>
       </c>
       <c r="E26" s="3">
-        <v>-23500</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-29300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-22900</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1173,20 +1224,23 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-34300</v>
+        <v>-89200</v>
       </c>
       <c r="E27" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-33500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-18700</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,20 +1374,23 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>4000</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1335,20 +1404,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-34300</v>
+        <v>-89200</v>
       </c>
       <c r="E33" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-33500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-18700</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,20 +1464,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-34300</v>
+        <v>-89200</v>
       </c>
       <c r="E35" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-33500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-18700</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1416,26 +1494,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,19 +1560,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6000</v>
+        <v>24300</v>
       </c>
       <c r="E41" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>5800</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1501,20 +1587,23 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>56500</v>
+        <v>202800</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>55200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1528,20 +1617,23 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13800</v>
+        <v>31100</v>
       </c>
       <c r="E43" s="3">
-        <v>10700</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>13500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>10400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1555,21 +1647,24 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3400</v>
+        <v>10300</v>
       </c>
       <c r="E44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1582,20 +1677,23 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5700</v>
+        <v>16100</v>
       </c>
       <c r="E45" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>5600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,20 +1707,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>85400</v>
+        <v>284500</v>
       </c>
       <c r="E46" s="3">
-        <v>20800</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>83400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>20300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1636,9 +1737,12 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,21 +1767,24 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1690,9 +1797,12 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,21 +1887,24 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>88900</v>
+        <v>292400</v>
       </c>
       <c r="E54" s="3">
-        <v>23200</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>86800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>22700</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,19 +2008,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5000</v>
+        <v>8800</v>
       </c>
       <c r="E57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>4800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1905,20 +2035,23 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>126000</v>
+        <v>123100</v>
       </c>
       <c r="E58" s="3">
-        <v>126000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>123100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>123100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1932,20 +2065,23 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>55600</v>
+        <v>114700</v>
       </c>
       <c r="E59" s="3">
-        <v>31800</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>54400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>31100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1959,20 +2095,23 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>186600</v>
+        <v>246500</v>
       </c>
       <c r="E60" s="3">
-        <v>160700</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>182300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>157000</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,36 +2155,42 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+        <v>3700</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,20 +2275,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>186700</v>
+        <v>250400</v>
       </c>
       <c r="E66" s="3">
-        <v>125800</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>182400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>122900</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,17 +2379,20 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>66100</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>64600</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-183800</v>
+        <v>-268900</v>
       </c>
       <c r="E72" s="3">
-        <v>-114500</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-179500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-111900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-163900</v>
+        <v>42100</v>
       </c>
       <c r="E76" s="3">
-        <v>-102600</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-160100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-100200</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2619,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,20 +2654,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-34300</v>
+        <v>-89200</v>
       </c>
       <c r="E81" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-33500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-18700</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,20 +2701,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,20 +2878,23 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-14400</v>
+        <v>-52100</v>
       </c>
       <c r="E89" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-14000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-12200</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,20 +2925,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2000</v>
+        <v>-2500</v>
       </c>
       <c r="E91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,20 +3012,23 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-53700</v>
+        <v>-151700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>-52300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-1500</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,20 +3176,23 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>68200</v>
+        <v>222200</v>
       </c>
       <c r="E100" s="3">
-        <v>15500</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>66500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>15100</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2961,20 +3206,23 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -2988,21 +3236,24 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>182600</v>
+        <v>189500</v>
       </c>
       <c r="E8" s="3">
-        <v>102400</v>
+        <v>106200</v>
       </c>
       <c r="F8" s="3">
-        <v>63800</v>
+        <v>66200</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>130800</v>
+        <v>135700</v>
       </c>
       <c r="E9" s="3">
-        <v>72100</v>
+        <v>74800</v>
       </c>
       <c r="F9" s="3">
-        <v>41100</v>
+        <v>42700</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>51900</v>
+        <v>53800</v>
       </c>
       <c r="E10" s="3">
-        <v>30300</v>
+        <v>31400</v>
       </c>
       <c r="F10" s="3">
-        <v>22700</v>
+        <v>23500</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>38500</v>
+        <v>40000</v>
       </c>
       <c r="E12" s="3">
-        <v>25800</v>
+        <v>26700</v>
       </c>
       <c r="F12" s="3">
-        <v>18600</v>
+        <v>19300</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>266700</v>
+        <v>276800</v>
       </c>
       <c r="E17" s="3">
-        <v>133100</v>
+        <v>138100</v>
       </c>
       <c r="F17" s="3">
-        <v>82000</v>
+        <v>85100</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-84100</v>
+        <v>-87300</v>
       </c>
       <c r="E18" s="3">
-        <v>-30700</v>
+        <v>-31800</v>
       </c>
       <c r="F18" s="3">
-        <v>-18200</v>
+        <v>-18900</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1027,10 +1027,10 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F20" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-82400</v>
+        <v>-85500</v>
       </c>
       <c r="E21" s="3">
-        <v>-26800</v>
+        <v>-27800</v>
       </c>
       <c r="F21" s="3">
-        <v>-21800</v>
+        <v>-22600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-83800</v>
+        <v>-87000</v>
       </c>
       <c r="E23" s="3">
-        <v>-27700</v>
+        <v>-28800</v>
       </c>
       <c r="F23" s="3">
-        <v>-22200</v>
+        <v>-23100</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>1600</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-84200</v>
+        <v>-87300</v>
       </c>
       <c r="E26" s="3">
-        <v>-29300</v>
+        <v>-30400</v>
       </c>
       <c r="F26" s="3">
-        <v>-22900</v>
+        <v>-23800</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-89200</v>
+        <v>-92600</v>
       </c>
       <c r="E27" s="3">
-        <v>-33500</v>
+        <v>-34700</v>
       </c>
       <c r="F27" s="3">
-        <v>-18700</v>
+        <v>-19400</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1387,10 +1387,10 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="F32" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-89200</v>
+        <v>-92600</v>
       </c>
       <c r="E33" s="3">
-        <v>-33500</v>
+        <v>-34700</v>
       </c>
       <c r="F33" s="3">
-        <v>-18700</v>
+        <v>-19400</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-89200</v>
+        <v>-92600</v>
       </c>
       <c r="E35" s="3">
-        <v>-33500</v>
+        <v>-34700</v>
       </c>
       <c r="F35" s="3">
-        <v>-18700</v>
+        <v>-19400</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24300</v>
+        <v>25200</v>
       </c>
       <c r="E41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F41" s="3">
         <v>5800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>5600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,10 +1597,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>202800</v>
+        <v>210100</v>
       </c>
       <c r="E42" s="3">
-        <v>55200</v>
+        <v>57200</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>31100</v>
+        <v>32200</v>
       </c>
       <c r="E43" s="3">
-        <v>13500</v>
+        <v>13900</v>
       </c>
       <c r="F43" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,10 +1657,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="E44" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16100</v>
+        <v>16600</v>
       </c>
       <c r="E45" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="F45" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>284500</v>
+        <v>294800</v>
       </c>
       <c r="E46" s="3">
-        <v>83400</v>
+        <v>86400</v>
       </c>
       <c r="F46" s="3">
-        <v>20300</v>
+        <v>21100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,10 +1777,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="E48" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F48" s="3">
         <v>1900</v>
@@ -1897,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E52" s="3">
         <v>900</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>292400</v>
+        <v>303000</v>
       </c>
       <c r="E54" s="3">
-        <v>86800</v>
+        <v>90000</v>
       </c>
       <c r="F54" s="3">
-        <v>22700</v>
+        <v>23500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="E57" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="F57" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>123100</v>
+        <v>127500</v>
       </c>
       <c r="E58" s="3">
-        <v>123100</v>
+        <v>127500</v>
       </c>
       <c r="F58" s="3">
-        <v>123100</v>
+        <v>127500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>114700</v>
+        <v>118800</v>
       </c>
       <c r="E59" s="3">
-        <v>54400</v>
+        <v>56300</v>
       </c>
       <c r="F59" s="3">
-        <v>31100</v>
+        <v>32200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>246500</v>
+        <v>255400</v>
       </c>
       <c r="E60" s="3">
-        <v>182300</v>
+        <v>188900</v>
       </c>
       <c r="F60" s="3">
-        <v>157000</v>
+        <v>162600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2165,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>250400</v>
+        <v>259400</v>
       </c>
       <c r="E66" s="3">
-        <v>182400</v>
+        <v>189000</v>
       </c>
       <c r="F66" s="3">
-        <v>122900</v>
+        <v>127300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>64600</v>
+        <v>66900</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-268900</v>
+        <v>-278600</v>
       </c>
       <c r="E72" s="3">
-        <v>-179500</v>
+        <v>-186000</v>
       </c>
       <c r="F72" s="3">
-        <v>-111900</v>
+        <v>-115900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42100</v>
+        <v>43600</v>
       </c>
       <c r="E76" s="3">
-        <v>-160100</v>
+        <v>-165900</v>
       </c>
       <c r="F76" s="3">
-        <v>-100200</v>
+        <v>-103800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-89200</v>
+        <v>-92600</v>
       </c>
       <c r="E81" s="3">
-        <v>-33500</v>
+        <v>-34700</v>
       </c>
       <c r="F81" s="3">
-        <v>-18700</v>
+        <v>-19400</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-52100</v>
+        <v>-54100</v>
       </c>
       <c r="E89" s="3">
-        <v>-14000</v>
+        <v>-14600</v>
       </c>
       <c r="F89" s="3">
-        <v>-12200</v>
+        <v>-12700</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,10 +2932,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="F91" s="3">
         <v>-1500</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-151700</v>
+        <v>-157400</v>
       </c>
       <c r="E94" s="3">
-        <v>-52300</v>
+        <v>-54300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>222200</v>
+        <v>230600</v>
       </c>
       <c r="E100" s="3">
-        <v>66500</v>
+        <v>69000</v>
       </c>
       <c r="F100" s="3">
-        <v>15100</v>
+        <v>15700</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3246,7 +3246,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="E102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>189500</v>
+        <v>198500</v>
       </c>
       <c r="E8" s="3">
-        <v>106200</v>
+        <v>111300</v>
       </c>
       <c r="F8" s="3">
-        <v>66200</v>
+        <v>69300</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>135700</v>
+        <v>142100</v>
       </c>
       <c r="E9" s="3">
-        <v>74800</v>
+        <v>78400</v>
       </c>
       <c r="F9" s="3">
-        <v>42700</v>
+        <v>44700</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>53800</v>
+        <v>56400</v>
       </c>
       <c r="E10" s="3">
-        <v>31400</v>
+        <v>32900</v>
       </c>
       <c r="F10" s="3">
-        <v>23500</v>
+        <v>24600</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>40000</v>
+        <v>41900</v>
       </c>
       <c r="E12" s="3">
-        <v>26700</v>
+        <v>28000</v>
       </c>
       <c r="F12" s="3">
-        <v>19300</v>
+        <v>20200</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>276800</v>
+        <v>289900</v>
       </c>
       <c r="E17" s="3">
-        <v>138100</v>
+        <v>144600</v>
       </c>
       <c r="F17" s="3">
-        <v>85100</v>
+        <v>89100</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-87300</v>
+        <v>-91400</v>
       </c>
       <c r="E18" s="3">
-        <v>-31800</v>
+        <v>-33300</v>
       </c>
       <c r="F18" s="3">
-        <v>-18900</v>
+        <v>-19800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1027,10 +1027,10 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F20" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-85500</v>
+        <v>-89500</v>
       </c>
       <c r="E21" s="3">
-        <v>-27800</v>
+        <v>-29100</v>
       </c>
       <c r="F21" s="3">
-        <v>-22600</v>
+        <v>-23600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-87000</v>
+        <v>-91100</v>
       </c>
       <c r="E23" s="3">
-        <v>-28800</v>
+        <v>-30100</v>
       </c>
       <c r="F23" s="3">
-        <v>-23100</v>
+        <v>-24200</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1147,10 +1147,10 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F24" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-87300</v>
+        <v>-91500</v>
       </c>
       <c r="E26" s="3">
-        <v>-30400</v>
+        <v>-31800</v>
       </c>
       <c r="F26" s="3">
-        <v>-23800</v>
+        <v>-24900</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-92600</v>
+        <v>-97000</v>
       </c>
       <c r="E27" s="3">
-        <v>-34700</v>
+        <v>-36400</v>
       </c>
       <c r="F27" s="3">
-        <v>-19400</v>
+        <v>-20300</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1387,10 +1387,10 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="F32" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-92600</v>
+        <v>-97000</v>
       </c>
       <c r="E33" s="3">
-        <v>-34700</v>
+        <v>-36400</v>
       </c>
       <c r="F33" s="3">
-        <v>-19400</v>
+        <v>-20300</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-92600</v>
+        <v>-97000</v>
       </c>
       <c r="E35" s="3">
-        <v>-34700</v>
+        <v>-36400</v>
       </c>
       <c r="F35" s="3">
-        <v>-19400</v>
+        <v>-20300</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25200</v>
+        <v>26400</v>
       </c>
       <c r="E41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F41" s="3">
         <v>6100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>5800</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,10 +1597,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>210100</v>
+        <v>220100</v>
       </c>
       <c r="E42" s="3">
-        <v>57200</v>
+        <v>59900</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32200</v>
+        <v>33700</v>
       </c>
       <c r="E43" s="3">
-        <v>13900</v>
+        <v>14600</v>
       </c>
       <c r="F43" s="3">
-        <v>10800</v>
+        <v>11300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,10 +1657,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10600</v>
+        <v>11100</v>
       </c>
       <c r="E44" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16600</v>
+        <v>17400</v>
       </c>
       <c r="E45" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="F45" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>294800</v>
+        <v>308800</v>
       </c>
       <c r="E46" s="3">
-        <v>86400</v>
+        <v>90500</v>
       </c>
       <c r="F46" s="3">
-        <v>21100</v>
+        <v>22100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="E48" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F48" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>303000</v>
+        <v>317400</v>
       </c>
       <c r="E54" s="3">
-        <v>90000</v>
+        <v>94300</v>
       </c>
       <c r="F54" s="3">
-        <v>23500</v>
+        <v>24600</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="E57" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="F57" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>127500</v>
+        <v>133600</v>
       </c>
       <c r="E58" s="3">
-        <v>127500</v>
+        <v>133600</v>
       </c>
       <c r="F58" s="3">
-        <v>127500</v>
+        <v>133600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>118800</v>
+        <v>124400</v>
       </c>
       <c r="E59" s="3">
-        <v>56300</v>
+        <v>59000</v>
       </c>
       <c r="F59" s="3">
-        <v>32200</v>
+        <v>33800</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>255400</v>
+        <v>267500</v>
       </c>
       <c r="E60" s="3">
-        <v>188900</v>
+        <v>197800</v>
       </c>
       <c r="F60" s="3">
-        <v>162600</v>
+        <v>170400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2165,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>259400</v>
+        <v>271700</v>
       </c>
       <c r="E66" s="3">
-        <v>189000</v>
+        <v>198000</v>
       </c>
       <c r="F66" s="3">
-        <v>127300</v>
+        <v>133400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>66900</v>
+        <v>70100</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-278600</v>
+        <v>-291800</v>
       </c>
       <c r="E72" s="3">
-        <v>-186000</v>
+        <v>-194900</v>
       </c>
       <c r="F72" s="3">
-        <v>-115900</v>
+        <v>-121400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43600</v>
+        <v>45600</v>
       </c>
       <c r="E76" s="3">
-        <v>-165900</v>
+        <v>-173800</v>
       </c>
       <c r="F76" s="3">
-        <v>-103800</v>
+        <v>-108800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-92600</v>
+        <v>-97000</v>
       </c>
       <c r="E81" s="3">
-        <v>-34700</v>
+        <v>-36400</v>
       </c>
       <c r="F81" s="3">
-        <v>-19400</v>
+        <v>-20300</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,10 +2708,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-54100</v>
+        <v>-56600</v>
       </c>
       <c r="E89" s="3">
-        <v>-14600</v>
+        <v>-15300</v>
       </c>
       <c r="F89" s="3">
-        <v>-12700</v>
+        <v>-13300</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,10 +3022,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-157400</v>
+        <v>-164900</v>
       </c>
       <c r="E94" s="3">
-        <v>-54300</v>
+        <v>-56900</v>
       </c>
       <c r="F94" s="3">
         <v>-1600</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>230600</v>
+        <v>241500</v>
       </c>
       <c r="E100" s="3">
-        <v>69000</v>
+        <v>72300</v>
       </c>
       <c r="F100" s="3">
-        <v>15700</v>
+        <v>16400</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19100</v>
+        <v>20000</v>
       </c>
       <c r="E102" s="3">
         <v>300</v>
       </c>
       <c r="F102" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,23 +708,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>198500</v>
+        <v>483900</v>
       </c>
       <c r="E8" s="3">
-        <v>111300</v>
+        <v>199400</v>
       </c>
       <c r="F8" s="3">
-        <v>69300</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>111800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>69600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -738,23 +741,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>142100</v>
+        <v>261700</v>
       </c>
       <c r="E9" s="3">
-        <v>78400</v>
+        <v>142700</v>
       </c>
       <c r="F9" s="3">
-        <v>44700</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>78700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44900</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -768,23 +774,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>56400</v>
+        <v>222200</v>
       </c>
       <c r="E10" s="3">
-        <v>32900</v>
+        <v>56600</v>
       </c>
       <c r="F10" s="3">
-        <v>24600</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>33100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>24700</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,22 +825,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>41900</v>
+        <v>64900</v>
       </c>
       <c r="E12" s="3">
-        <v>28000</v>
+        <v>42100</v>
       </c>
       <c r="F12" s="3">
-        <v>20200</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>28100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>20300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>289900</v>
+        <v>759800</v>
       </c>
       <c r="E17" s="3">
-        <v>144600</v>
+        <v>291200</v>
       </c>
       <c r="F17" s="3">
-        <v>89100</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>145300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>89500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,23 +999,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-91400</v>
+        <v>-275900</v>
       </c>
       <c r="E18" s="3">
-        <v>-33300</v>
+        <v>-91800</v>
       </c>
       <c r="F18" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-33500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-19900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,23 +1050,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4400</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,23 +1080,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-89500</v>
+        <v>-264900</v>
       </c>
       <c r="E21" s="3">
-        <v>-29100</v>
+        <v>-89900</v>
       </c>
       <c r="F21" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-29300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-23700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,9 +1113,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,23 +1146,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-91100</v>
+        <v>-267400</v>
       </c>
       <c r="E23" s="3">
-        <v>-30100</v>
+        <v>-91500</v>
       </c>
       <c r="F23" s="3">
-        <v>-24200</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-30300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-24300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1137,9 +1179,12 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1147,14 +1192,14 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,23 +1245,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-91500</v>
+        <v>-267900</v>
       </c>
       <c r="E26" s="3">
-        <v>-31800</v>
+        <v>-91900</v>
       </c>
       <c r="F26" s="3">
-        <v>-24900</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-32000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-25000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1227,23 +1278,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-97000</v>
+        <v>-267800</v>
       </c>
       <c r="E27" s="3">
-        <v>-36400</v>
+        <v>-97400</v>
       </c>
       <c r="F27" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-36500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-20400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,24 +1443,27 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4400</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-97000</v>
+        <v>-267800</v>
       </c>
       <c r="E33" s="3">
-        <v>-36400</v>
+        <v>-97400</v>
       </c>
       <c r="F33" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-36500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-20400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-97000</v>
+        <v>-267800</v>
       </c>
       <c r="E35" s="3">
-        <v>-36400</v>
+        <v>-97400</v>
       </c>
       <c r="F35" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-36500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-20400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,23 +1646,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>26400</v>
+        <v>93100</v>
       </c>
       <c r="E41" s="3">
-        <v>6300</v>
+        <v>26500</v>
       </c>
       <c r="F41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G41" s="3">
         <v>6100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,23 +1676,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>220100</v>
+        <v>89400</v>
       </c>
       <c r="E42" s="3">
-        <v>59900</v>
+        <v>221100</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>60100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>33700</v>
+        <v>41700</v>
       </c>
       <c r="E43" s="3">
-        <v>14600</v>
+        <v>33900</v>
       </c>
       <c r="F43" s="3">
-        <v>11300</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>14700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>11400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,24 +1742,27 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11100</v>
+        <v>22700</v>
       </c>
       <c r="E44" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F44" s="3">
         <v>3600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1680,24 +1775,27 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17400</v>
+        <v>36000</v>
       </c>
       <c r="E45" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F45" s="3">
         <v>6100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>308800</v>
+        <v>282900</v>
       </c>
       <c r="E46" s="3">
-        <v>90500</v>
+        <v>310100</v>
       </c>
       <c r="F46" s="3">
-        <v>22100</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>90900</v>
+      </c>
+      <c r="G46" s="3">
+        <v>22200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,9 +1841,12 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,24 +1874,27 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E48" s="3">
         <v>7400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,9 +1907,12 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,24 +2006,27 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>317400</v>
+        <v>316300</v>
       </c>
       <c r="E54" s="3">
-        <v>94300</v>
+        <v>318800</v>
       </c>
       <c r="F54" s="3">
-        <v>24600</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>94700</v>
+      </c>
+      <c r="G54" s="3">
+        <v>24700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,23 +2138,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9500</v>
+        <v>21600</v>
       </c>
       <c r="E57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F57" s="3">
         <v>5300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,23 +2168,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>133600</v>
+        <v>134100</v>
       </c>
       <c r="E58" s="3">
-        <v>133600</v>
+        <v>134100</v>
       </c>
       <c r="F58" s="3">
-        <v>133600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>134100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>134100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2068,23 +2201,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>124400</v>
+        <v>362700</v>
       </c>
       <c r="E59" s="3">
-        <v>59000</v>
+        <v>125000</v>
       </c>
       <c r="F59" s="3">
-        <v>33800</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>59300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>33900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>267500</v>
+        <v>518500</v>
       </c>
       <c r="E60" s="3">
-        <v>197800</v>
+        <v>268700</v>
       </c>
       <c r="F60" s="3">
-        <v>170400</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>198700</v>
+      </c>
+      <c r="G60" s="3">
+        <v>171100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,18 +2300,21 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E62" s="3">
         <v>4100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,12 +2330,15 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>271700</v>
+        <v>531400</v>
       </c>
       <c r="E66" s="3">
-        <v>198000</v>
+        <v>272900</v>
       </c>
       <c r="F66" s="3">
-        <v>133400</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>198800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>134000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>70100</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>70400</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-291800</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>-194900</v>
+        <v>-293100</v>
       </c>
       <c r="F72" s="3">
-        <v>-121400</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-195700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-121900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45600</v>
+        <v>-215100</v>
       </c>
       <c r="E76" s="3">
-        <v>-173800</v>
+        <v>45800</v>
       </c>
       <c r="F76" s="3">
-        <v>-108800</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-174500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-109200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-97000</v>
+        <v>-267800</v>
       </c>
       <c r="E81" s="3">
-        <v>-36400</v>
+        <v>-97400</v>
       </c>
       <c r="F81" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-36500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-20400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,23 +2899,24 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,24 +3094,27 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-56600</v>
+        <v>132200</v>
       </c>
       <c r="E89" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-15300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,23 +3145,24 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,23 +3241,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-164900</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-56900</v>
+        <v>-165600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-57100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-1700</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,23 +3421,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>241500</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>72300</v>
+        <v>242600</v>
       </c>
       <c r="F100" s="3">
-        <v>16400</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>72600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>16500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3209,23 +3454,26 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3239,24 +3487,27 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>20000</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>483900</v>
+        <v>494200</v>
       </c>
       <c r="E8" s="3">
-        <v>199400</v>
+        <v>203600</v>
       </c>
       <c r="F8" s="3">
-        <v>111800</v>
+        <v>114100</v>
       </c>
       <c r="G8" s="3">
-        <v>69600</v>
+        <v>71100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>261700</v>
+        <v>267300</v>
       </c>
       <c r="E9" s="3">
-        <v>142700</v>
+        <v>145800</v>
       </c>
       <c r="F9" s="3">
-        <v>78700</v>
+        <v>80400</v>
       </c>
       <c r="G9" s="3">
-        <v>44900</v>
+        <v>45800</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>222200</v>
+        <v>226900</v>
       </c>
       <c r="E10" s="3">
-        <v>56600</v>
+        <v>57800</v>
       </c>
       <c r="F10" s="3">
-        <v>33100</v>
+        <v>33800</v>
       </c>
       <c r="G10" s="3">
-        <v>24700</v>
+        <v>25300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>64900</v>
+        <v>66200</v>
       </c>
       <c r="E12" s="3">
-        <v>42100</v>
+        <v>43000</v>
       </c>
       <c r="F12" s="3">
-        <v>28100</v>
+        <v>28700</v>
       </c>
       <c r="G12" s="3">
-        <v>20300</v>
+        <v>20800</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,25 +898,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-8100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>759800</v>
+        <v>767800</v>
       </c>
       <c r="E17" s="3">
-        <v>291200</v>
+        <v>297300</v>
       </c>
       <c r="F17" s="3">
-        <v>145300</v>
+        <v>148300</v>
       </c>
       <c r="G17" s="3">
-        <v>89500</v>
+        <v>91400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-275900</v>
+        <v>-273600</v>
       </c>
       <c r="E18" s="3">
-        <v>-91800</v>
+        <v>-93700</v>
       </c>
       <c r="F18" s="3">
-        <v>-33500</v>
+        <v>-34200</v>
       </c>
       <c r="G18" s="3">
-        <v>-19900</v>
+        <v>-20300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8500</v>
+        <v>5400</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
       </c>
       <c r="F20" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G20" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-264900</v>
+        <v>-265700</v>
       </c>
       <c r="E21" s="3">
-        <v>-89900</v>
+        <v>-91800</v>
       </c>
       <c r="F21" s="3">
-        <v>-29300</v>
+        <v>-29900</v>
       </c>
       <c r="G21" s="3">
-        <v>-23700</v>
+        <v>-24300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>4900</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-267400</v>
+        <v>-273100</v>
       </c>
       <c r="E23" s="3">
-        <v>-91500</v>
+        <v>-93500</v>
       </c>
       <c r="F23" s="3">
-        <v>-30300</v>
+        <v>-30900</v>
       </c>
       <c r="G23" s="3">
-        <v>-24300</v>
+        <v>-24800</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,13 +1189,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
         <v>400</v>
       </c>
       <c r="F24" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G24" s="3">
         <v>800</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-267900</v>
+        <v>-273500</v>
       </c>
       <c r="E26" s="3">
-        <v>-91900</v>
+        <v>-93800</v>
       </c>
       <c r="F26" s="3">
-        <v>-32000</v>
+        <v>-32700</v>
       </c>
       <c r="G26" s="3">
-        <v>-25000</v>
+        <v>-25600</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-267800</v>
+        <v>-273500</v>
       </c>
       <c r="E27" s="3">
-        <v>-97400</v>
+        <v>-99400</v>
       </c>
       <c r="F27" s="3">
-        <v>-36500</v>
+        <v>-37300</v>
       </c>
       <c r="G27" s="3">
-        <v>-20400</v>
+        <v>-20800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8500</v>
+        <v>-5400</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
       </c>
       <c r="F32" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="G32" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-267800</v>
+        <v>-273500</v>
       </c>
       <c r="E33" s="3">
-        <v>-97400</v>
+        <v>-99400</v>
       </c>
       <c r="F33" s="3">
-        <v>-36500</v>
+        <v>-37300</v>
       </c>
       <c r="G33" s="3">
-        <v>-20400</v>
+        <v>-20800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-267800</v>
+        <v>-273500</v>
       </c>
       <c r="E35" s="3">
-        <v>-97400</v>
+        <v>-99400</v>
       </c>
       <c r="F35" s="3">
-        <v>-36500</v>
+        <v>-37300</v>
       </c>
       <c r="G35" s="3">
-        <v>-20400</v>
+        <v>-20800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>93100</v>
+        <v>95000</v>
       </c>
       <c r="E41" s="3">
-        <v>26500</v>
+        <v>27000</v>
       </c>
       <c r="F41" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="G41" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,13 +1686,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>89400</v>
+        <v>91300</v>
       </c>
       <c r="E42" s="3">
-        <v>221100</v>
+        <v>225700</v>
       </c>
       <c r="F42" s="3">
-        <v>60100</v>
+        <v>61400</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>41700</v>
+        <v>42600</v>
       </c>
       <c r="E43" s="3">
-        <v>33900</v>
+        <v>34600</v>
       </c>
       <c r="F43" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="G43" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22700</v>
+        <v>23200</v>
       </c>
       <c r="E44" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="F44" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36000</v>
+        <v>36700</v>
       </c>
       <c r="E45" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="F45" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="G45" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>282900</v>
+        <v>288900</v>
       </c>
       <c r="E46" s="3">
-        <v>310100</v>
+        <v>316700</v>
       </c>
       <c r="F46" s="3">
-        <v>90900</v>
+        <v>92800</v>
       </c>
       <c r="G46" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>6600</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="E48" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="F48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G48" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10300</v>
+        <v>3900</v>
       </c>
       <c r="E52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>316300</v>
+        <v>323000</v>
       </c>
       <c r="E54" s="3">
-        <v>318800</v>
+        <v>325500</v>
       </c>
       <c r="F54" s="3">
-        <v>94700</v>
+        <v>96700</v>
       </c>
       <c r="G54" s="3">
-        <v>24700</v>
+        <v>25300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21600</v>
+        <v>22000</v>
       </c>
       <c r="E57" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="F57" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="G57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>134100</v>
+        <v>137000</v>
       </c>
       <c r="E58" s="3">
-        <v>134100</v>
+        <v>137000</v>
       </c>
       <c r="F58" s="3">
-        <v>134100</v>
+        <v>137000</v>
       </c>
       <c r="G58" s="3">
-        <v>134100</v>
+        <v>137000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>362700</v>
+        <v>370400</v>
       </c>
       <c r="E59" s="3">
-        <v>125000</v>
+        <v>127600</v>
       </c>
       <c r="F59" s="3">
-        <v>59300</v>
+        <v>60500</v>
       </c>
       <c r="G59" s="3">
-        <v>33900</v>
+        <v>34600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>518500</v>
+        <v>529400</v>
       </c>
       <c r="E60" s="3">
-        <v>268700</v>
+        <v>274400</v>
       </c>
       <c r="F60" s="3">
-        <v>198700</v>
+        <v>202900</v>
       </c>
       <c r="G60" s="3">
-        <v>171100</v>
+        <v>174700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2310,10 +2310,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="E62" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>531400</v>
+        <v>542700</v>
       </c>
       <c r="E66" s="3">
-        <v>272900</v>
+        <v>278700</v>
       </c>
       <c r="F66" s="3">
-        <v>198800</v>
+        <v>203000</v>
       </c>
       <c r="G66" s="3">
-        <v>134000</v>
+        <v>136800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>70400</v>
+        <v>71900</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2621,17 +2621,17 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-572700</v>
       </c>
       <c r="E72" s="3">
-        <v>-293100</v>
+        <v>-299300</v>
       </c>
       <c r="F72" s="3">
-        <v>-195700</v>
+        <v>-199800</v>
       </c>
       <c r="G72" s="3">
-        <v>-121900</v>
+        <v>-124500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-215100</v>
+        <v>-219700</v>
       </c>
       <c r="E76" s="3">
-        <v>45800</v>
+        <v>46800</v>
       </c>
       <c r="F76" s="3">
-        <v>-174500</v>
+        <v>-178200</v>
       </c>
       <c r="G76" s="3">
-        <v>-109200</v>
+        <v>-111500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-267800</v>
+        <v>-273500</v>
       </c>
       <c r="E81" s="3">
-        <v>-97400</v>
+        <v>-99400</v>
       </c>
       <c r="F81" s="3">
-        <v>-36500</v>
+        <v>-37300</v>
       </c>
       <c r="G81" s="3">
-        <v>-20400</v>
+        <v>-20800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2909,7 +2909,7 @@
         <v>2500</v>
       </c>
       <c r="E83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F83" s="3">
         <v>1000</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>132200</v>
+        <v>-50200</v>
       </c>
       <c r="E89" s="3">
-        <v>-56900</v>
+        <v>-58100</v>
       </c>
       <c r="F89" s="3">
-        <v>-15300</v>
+        <v>-15700</v>
       </c>
       <c r="G89" s="3">
-        <v>-13300</v>
+        <v>-13600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,7 +3152,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="E91" s="3">
         <v>-2800</v>
@@ -3161,7 +3161,7 @@
         <v>-2100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3250,14 +3250,14 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>118700</v>
       </c>
       <c r="E94" s="3">
-        <v>-165600</v>
+        <v>-169100</v>
       </c>
       <c r="F94" s="3">
-        <v>-57100</v>
+        <v>-58300</v>
       </c>
       <c r="G94" s="3">
         <v>-1700</v>
@@ -3430,17 +3430,17 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>4100</v>
       </c>
       <c r="E100" s="3">
-        <v>242600</v>
+        <v>247700</v>
       </c>
       <c r="F100" s="3">
-        <v>72600</v>
+        <v>74100</v>
       </c>
       <c r="G100" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3463,8 +3463,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-4700</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3496,11 +3496,11 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>68000</v>
       </c>
       <c r="E102" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="F102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>494200</v>
+        <v>487700</v>
       </c>
       <c r="E8" s="3">
-        <v>203600</v>
+        <v>200900</v>
       </c>
       <c r="F8" s="3">
-        <v>114100</v>
+        <v>112700</v>
       </c>
       <c r="G8" s="3">
-        <v>71100</v>
+        <v>70200</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>267300</v>
+        <v>263800</v>
       </c>
       <c r="E9" s="3">
-        <v>145800</v>
+        <v>143900</v>
       </c>
       <c r="F9" s="3">
-        <v>80400</v>
+        <v>79300</v>
       </c>
       <c r="G9" s="3">
-        <v>45800</v>
+        <v>45200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>226900</v>
+        <v>223900</v>
       </c>
       <c r="E10" s="3">
-        <v>57800</v>
+        <v>57100</v>
       </c>
       <c r="F10" s="3">
-        <v>33800</v>
+        <v>33300</v>
       </c>
       <c r="G10" s="3">
-        <v>25300</v>
+        <v>24900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>66200</v>
+        <v>65400</v>
       </c>
       <c r="E12" s="3">
-        <v>43000</v>
+        <v>42400</v>
       </c>
       <c r="F12" s="3">
-        <v>28700</v>
+        <v>28300</v>
       </c>
       <c r="G12" s="3">
-        <v>20800</v>
+        <v>20500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8100</v>
+        <v>-8000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>767800</v>
+        <v>757800</v>
       </c>
       <c r="E17" s="3">
-        <v>297300</v>
+        <v>293500</v>
       </c>
       <c r="F17" s="3">
-        <v>148300</v>
+        <v>146400</v>
       </c>
       <c r="G17" s="3">
-        <v>91400</v>
+        <v>90200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-273600</v>
+        <v>-270100</v>
       </c>
       <c r="E18" s="3">
-        <v>-93700</v>
+        <v>-92500</v>
       </c>
       <c r="F18" s="3">
-        <v>-34200</v>
+        <v>-33700</v>
       </c>
       <c r="G18" s="3">
-        <v>-20300</v>
+        <v>-20000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1066,7 +1066,7 @@
         <v>3300</v>
       </c>
       <c r="G20" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-265700</v>
+        <v>-262200</v>
       </c>
       <c r="E21" s="3">
-        <v>-91800</v>
+        <v>-90600</v>
       </c>
       <c r="F21" s="3">
-        <v>-29900</v>
+        <v>-29500</v>
       </c>
       <c r="G21" s="3">
-        <v>-24300</v>
+        <v>-23900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-273100</v>
+        <v>-269500</v>
       </c>
       <c r="E23" s="3">
-        <v>-93500</v>
+        <v>-92200</v>
       </c>
       <c r="F23" s="3">
-        <v>-30900</v>
+        <v>-30500</v>
       </c>
       <c r="G23" s="3">
-        <v>-24800</v>
+        <v>-24400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1195,7 +1195,7 @@
         <v>400</v>
       </c>
       <c r="F24" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G24" s="3">
         <v>800</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-273500</v>
+        <v>-270000</v>
       </c>
       <c r="E26" s="3">
-        <v>-93800</v>
+        <v>-92600</v>
       </c>
       <c r="F26" s="3">
-        <v>-32700</v>
+        <v>-32200</v>
       </c>
       <c r="G26" s="3">
-        <v>-25600</v>
+        <v>-25200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-273500</v>
+        <v>-269900</v>
       </c>
       <c r="E27" s="3">
-        <v>-99400</v>
+        <v>-98100</v>
       </c>
       <c r="F27" s="3">
-        <v>-37300</v>
+        <v>-36800</v>
       </c>
       <c r="G27" s="3">
-        <v>-20800</v>
+        <v>-20600</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -1462,7 +1462,7 @@
         <v>-3300</v>
       </c>
       <c r="G32" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-273500</v>
+        <v>-269900</v>
       </c>
       <c r="E33" s="3">
-        <v>-99400</v>
+        <v>-98100</v>
       </c>
       <c r="F33" s="3">
-        <v>-37300</v>
+        <v>-36800</v>
       </c>
       <c r="G33" s="3">
-        <v>-20800</v>
+        <v>-20600</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-273500</v>
+        <v>-269900</v>
       </c>
       <c r="E35" s="3">
-        <v>-99400</v>
+        <v>-98100</v>
       </c>
       <c r="F35" s="3">
-        <v>-37300</v>
+        <v>-36800</v>
       </c>
       <c r="G35" s="3">
-        <v>-20800</v>
+        <v>-20600</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>95000</v>
+        <v>93800</v>
       </c>
       <c r="E41" s="3">
-        <v>27000</v>
+        <v>26700</v>
       </c>
       <c r="F41" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="G41" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,13 +1686,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>91300</v>
+        <v>90100</v>
       </c>
       <c r="E42" s="3">
-        <v>225700</v>
+        <v>222800</v>
       </c>
       <c r="F42" s="3">
-        <v>61400</v>
+        <v>60600</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>42600</v>
+        <v>42000</v>
       </c>
       <c r="E43" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="F43" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="G43" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,10 +1752,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23200</v>
+        <v>22900</v>
       </c>
       <c r="E44" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="F44" s="3">
         <v>3700</v>
@@ -1785,13 +1785,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="E45" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="F45" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="G45" s="3">
         <v>4500</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>288900</v>
+        <v>285100</v>
       </c>
       <c r="E46" s="3">
-        <v>316700</v>
+        <v>312600</v>
       </c>
       <c r="F46" s="3">
-        <v>92800</v>
+        <v>91600</v>
       </c>
       <c r="G46" s="3">
-        <v>22600</v>
+        <v>22300</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,7 +1851,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1884,13 +1884,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23600</v>
+        <v>23300</v>
       </c>
       <c r="E48" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="F48" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G48" s="3">
         <v>2100</v>
@@ -2016,7 +2016,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E52" s="3">
         <v>1300</v>
@@ -2025,7 +2025,7 @@
         <v>1000</v>
       </c>
       <c r="G52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>323000</v>
+        <v>318800</v>
       </c>
       <c r="E54" s="3">
-        <v>325500</v>
+        <v>321300</v>
       </c>
       <c r="F54" s="3">
-        <v>96700</v>
+        <v>95400</v>
       </c>
       <c r="G54" s="3">
-        <v>25300</v>
+        <v>24900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,13 +2145,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="E57" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="F57" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="G57" s="3">
         <v>3100</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>137000</v>
+        <v>135200</v>
       </c>
       <c r="E58" s="3">
-        <v>137000</v>
+        <v>135200</v>
       </c>
       <c r="F58" s="3">
-        <v>137000</v>
+        <v>135200</v>
       </c>
       <c r="G58" s="3">
-        <v>137000</v>
+        <v>135200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>370400</v>
+        <v>365600</v>
       </c>
       <c r="E59" s="3">
-        <v>127600</v>
+        <v>126000</v>
       </c>
       <c r="F59" s="3">
-        <v>60500</v>
+        <v>59700</v>
       </c>
       <c r="G59" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>529400</v>
+        <v>522500</v>
       </c>
       <c r="E60" s="3">
-        <v>274400</v>
+        <v>270800</v>
       </c>
       <c r="F60" s="3">
-        <v>202900</v>
+        <v>200200</v>
       </c>
       <c r="G60" s="3">
-        <v>174700</v>
+        <v>172400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2310,10 +2310,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="E62" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>542700</v>
+        <v>535600</v>
       </c>
       <c r="E66" s="3">
-        <v>278700</v>
+        <v>275100</v>
       </c>
       <c r="F66" s="3">
-        <v>203000</v>
+        <v>200400</v>
       </c>
       <c r="G66" s="3">
-        <v>136800</v>
+        <v>135000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>71900</v>
+        <v>70900</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-572700</v>
+        <v>-565300</v>
       </c>
       <c r="E72" s="3">
-        <v>-299300</v>
+        <v>-295400</v>
       </c>
       <c r="F72" s="3">
-        <v>-199800</v>
+        <v>-197200</v>
       </c>
       <c r="G72" s="3">
-        <v>-124500</v>
+        <v>-122900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-219700</v>
+        <v>-216800</v>
       </c>
       <c r="E76" s="3">
-        <v>46800</v>
+        <v>46200</v>
       </c>
       <c r="F76" s="3">
-        <v>-178200</v>
+        <v>-175900</v>
       </c>
       <c r="G76" s="3">
-        <v>-111500</v>
+        <v>-110100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-273500</v>
+        <v>-269900</v>
       </c>
       <c r="E81" s="3">
-        <v>-99400</v>
+        <v>-98100</v>
       </c>
       <c r="F81" s="3">
-        <v>-37300</v>
+        <v>-36800</v>
       </c>
       <c r="G81" s="3">
-        <v>-20800</v>
+        <v>-20600</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2909,7 +2909,7 @@
         <v>2500</v>
       </c>
       <c r="E83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F83" s="3">
         <v>1000</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-50200</v>
+        <v>-49500</v>
       </c>
       <c r="E89" s="3">
-        <v>-58100</v>
+        <v>-57300</v>
       </c>
       <c r="F89" s="3">
-        <v>-15700</v>
+        <v>-15400</v>
       </c>
       <c r="G89" s="3">
-        <v>-13600</v>
+        <v>-13400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3161,7 +3161,7 @@
         <v>-2100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,13 +3251,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>118700</v>
+        <v>117200</v>
       </c>
       <c r="E94" s="3">
-        <v>-169100</v>
+        <v>-166900</v>
       </c>
       <c r="F94" s="3">
-        <v>-58300</v>
+        <v>-57600</v>
       </c>
       <c r="G94" s="3">
         <v>-1700</v>
@@ -3434,13 +3434,13 @@
         <v>4100</v>
       </c>
       <c r="E100" s="3">
-        <v>247700</v>
+        <v>244500</v>
       </c>
       <c r="F100" s="3">
-        <v>74100</v>
+        <v>73200</v>
       </c>
       <c r="G100" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3497,10 +3497,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>68000</v>
+        <v>67100</v>
       </c>
       <c r="E102" s="3">
-        <v>20500</v>
+        <v>20300</v>
       </c>
       <c r="F102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>487700</v>
+        <v>495900</v>
       </c>
       <c r="E8" s="3">
-        <v>200900</v>
+        <v>204300</v>
       </c>
       <c r="F8" s="3">
-        <v>112700</v>
+        <v>114500</v>
       </c>
       <c r="G8" s="3">
-        <v>70200</v>
+        <v>71400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>263800</v>
+        <v>268200</v>
       </c>
       <c r="E9" s="3">
-        <v>143900</v>
+        <v>146300</v>
       </c>
       <c r="F9" s="3">
-        <v>79300</v>
+        <v>80600</v>
       </c>
       <c r="G9" s="3">
-        <v>45200</v>
+        <v>46000</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>223900</v>
+        <v>227700</v>
       </c>
       <c r="E10" s="3">
-        <v>57100</v>
+        <v>58000</v>
       </c>
       <c r="F10" s="3">
-        <v>33300</v>
+        <v>33900</v>
       </c>
       <c r="G10" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>65400</v>
+        <v>66500</v>
       </c>
       <c r="E12" s="3">
-        <v>42400</v>
+        <v>43100</v>
       </c>
       <c r="F12" s="3">
-        <v>28300</v>
+        <v>28800</v>
       </c>
       <c r="G12" s="3">
-        <v>20500</v>
+        <v>20800</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8000</v>
+        <v>-8100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>757800</v>
+        <v>770500</v>
       </c>
       <c r="E17" s="3">
-        <v>293500</v>
+        <v>298400</v>
       </c>
       <c r="F17" s="3">
-        <v>146400</v>
+        <v>148800</v>
       </c>
       <c r="G17" s="3">
-        <v>90200</v>
+        <v>91700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-270100</v>
+        <v>-274600</v>
       </c>
       <c r="E18" s="3">
-        <v>-92500</v>
+        <v>-94100</v>
       </c>
       <c r="F18" s="3">
-        <v>-33700</v>
+        <v>-34300</v>
       </c>
       <c r="G18" s="3">
-        <v>-20000</v>
+        <v>-20400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1066,7 +1066,7 @@
         <v>3300</v>
       </c>
       <c r="G20" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-262200</v>
+        <v>-266600</v>
       </c>
       <c r="E21" s="3">
-        <v>-90600</v>
+        <v>-92100</v>
       </c>
       <c r="F21" s="3">
-        <v>-29500</v>
+        <v>-30000</v>
       </c>
       <c r="G21" s="3">
-        <v>-23900</v>
+        <v>-24300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-269500</v>
+        <v>-274000</v>
       </c>
       <c r="E23" s="3">
-        <v>-92200</v>
+        <v>-93800</v>
       </c>
       <c r="F23" s="3">
-        <v>-30500</v>
+        <v>-31000</v>
       </c>
       <c r="G23" s="3">
-        <v>-24400</v>
+        <v>-24900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1195,7 +1195,7 @@
         <v>400</v>
       </c>
       <c r="F24" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G24" s="3">
         <v>800</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-270000</v>
+        <v>-274500</v>
       </c>
       <c r="E26" s="3">
-        <v>-92600</v>
+        <v>-94200</v>
       </c>
       <c r="F26" s="3">
-        <v>-32200</v>
+        <v>-32800</v>
       </c>
       <c r="G26" s="3">
-        <v>-25200</v>
+        <v>-25700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-269900</v>
+        <v>-274400</v>
       </c>
       <c r="E27" s="3">
-        <v>-98100</v>
+        <v>-99800</v>
       </c>
       <c r="F27" s="3">
-        <v>-36800</v>
+        <v>-37500</v>
       </c>
       <c r="G27" s="3">
-        <v>-20600</v>
+        <v>-20900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -1462,7 +1462,7 @@
         <v>-3300</v>
       </c>
       <c r="G32" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-269900</v>
+        <v>-274400</v>
       </c>
       <c r="E33" s="3">
-        <v>-98100</v>
+        <v>-99800</v>
       </c>
       <c r="F33" s="3">
-        <v>-36800</v>
+        <v>-37500</v>
       </c>
       <c r="G33" s="3">
-        <v>-20600</v>
+        <v>-20900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-269900</v>
+        <v>-274400</v>
       </c>
       <c r="E35" s="3">
-        <v>-98100</v>
+        <v>-99800</v>
       </c>
       <c r="F35" s="3">
-        <v>-36800</v>
+        <v>-37500</v>
       </c>
       <c r="G35" s="3">
-        <v>-20600</v>
+        <v>-20900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>93800</v>
+        <v>95400</v>
       </c>
       <c r="E41" s="3">
-        <v>26700</v>
+        <v>27100</v>
       </c>
       <c r="F41" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="G41" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,13 +1686,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>90100</v>
+        <v>91600</v>
       </c>
       <c r="E42" s="3">
-        <v>222800</v>
+        <v>226500</v>
       </c>
       <c r="F42" s="3">
-        <v>60600</v>
+        <v>61600</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>42000</v>
+        <v>42700</v>
       </c>
       <c r="E43" s="3">
-        <v>34200</v>
+        <v>34700</v>
       </c>
       <c r="F43" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="G43" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,10 +1752,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22900</v>
+        <v>23300</v>
       </c>
       <c r="E44" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="F44" s="3">
         <v>3700</v>
@@ -1785,13 +1785,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36300</v>
+        <v>36900</v>
       </c>
       <c r="E45" s="3">
-        <v>17700</v>
+        <v>17900</v>
       </c>
       <c r="F45" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="G45" s="3">
         <v>4500</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>285100</v>
+        <v>289900</v>
       </c>
       <c r="E46" s="3">
-        <v>312600</v>
+        <v>317800</v>
       </c>
       <c r="F46" s="3">
-        <v>91600</v>
+        <v>93200</v>
       </c>
       <c r="G46" s="3">
-        <v>22300</v>
+        <v>22700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,7 +1851,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1884,13 +1884,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="E48" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="F48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G48" s="3">
         <v>2100</v>
@@ -2016,7 +2016,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E52" s="3">
         <v>1300</v>
@@ -2025,7 +2025,7 @@
         <v>1000</v>
       </c>
       <c r="G52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>318800</v>
+        <v>324100</v>
       </c>
       <c r="E54" s="3">
-        <v>321300</v>
+        <v>326700</v>
       </c>
       <c r="F54" s="3">
-        <v>95400</v>
+        <v>97000</v>
       </c>
       <c r="G54" s="3">
-        <v>24900</v>
+        <v>25300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,13 +2145,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21800</v>
+        <v>22100</v>
       </c>
       <c r="E57" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="F57" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="G57" s="3">
         <v>3100</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>135200</v>
+        <v>137500</v>
       </c>
       <c r="E58" s="3">
-        <v>135200</v>
+        <v>137500</v>
       </c>
       <c r="F58" s="3">
-        <v>135200</v>
+        <v>137500</v>
       </c>
       <c r="G58" s="3">
-        <v>135200</v>
+        <v>137500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>365600</v>
+        <v>371700</v>
       </c>
       <c r="E59" s="3">
-        <v>126000</v>
+        <v>128100</v>
       </c>
       <c r="F59" s="3">
-        <v>59700</v>
+        <v>60700</v>
       </c>
       <c r="G59" s="3">
-        <v>34200</v>
+        <v>34700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>522500</v>
+        <v>531300</v>
       </c>
       <c r="E60" s="3">
-        <v>270800</v>
+        <v>275300</v>
       </c>
       <c r="F60" s="3">
-        <v>200200</v>
+        <v>203600</v>
       </c>
       <c r="G60" s="3">
-        <v>172400</v>
+        <v>175300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2310,10 +2310,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="E62" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>535600</v>
+        <v>544600</v>
       </c>
       <c r="E66" s="3">
-        <v>275100</v>
+        <v>279700</v>
       </c>
       <c r="F66" s="3">
-        <v>200400</v>
+        <v>203700</v>
       </c>
       <c r="G66" s="3">
-        <v>135000</v>
+        <v>137300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>70900</v>
+        <v>72100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-565300</v>
+        <v>-574700</v>
       </c>
       <c r="E72" s="3">
-        <v>-295400</v>
+        <v>-300300</v>
       </c>
       <c r="F72" s="3">
-        <v>-197200</v>
+        <v>-200500</v>
       </c>
       <c r="G72" s="3">
-        <v>-122900</v>
+        <v>-124900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-216800</v>
+        <v>-220500</v>
       </c>
       <c r="E76" s="3">
-        <v>46200</v>
+        <v>47000</v>
       </c>
       <c r="F76" s="3">
-        <v>-175900</v>
+        <v>-178800</v>
       </c>
       <c r="G76" s="3">
-        <v>-110100</v>
+        <v>-111900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-269900</v>
+        <v>-274400</v>
       </c>
       <c r="E81" s="3">
-        <v>-98100</v>
+        <v>-99800</v>
       </c>
       <c r="F81" s="3">
-        <v>-36800</v>
+        <v>-37500</v>
       </c>
       <c r="G81" s="3">
-        <v>-20600</v>
+        <v>-20900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2909,7 +2909,7 @@
         <v>2500</v>
       </c>
       <c r="E83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F83" s="3">
         <v>1000</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-49500</v>
+        <v>-50300</v>
       </c>
       <c r="E89" s="3">
-        <v>-57300</v>
+        <v>-58300</v>
       </c>
       <c r="F89" s="3">
-        <v>-15400</v>
+        <v>-15700</v>
       </c>
       <c r="G89" s="3">
-        <v>-13400</v>
+        <v>-13600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,7 +3152,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="E91" s="3">
         <v>-2800</v>
@@ -3161,7 +3161,7 @@
         <v>-2100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,13 +3251,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>117200</v>
+        <v>119100</v>
       </c>
       <c r="E94" s="3">
-        <v>-166900</v>
+        <v>-169700</v>
       </c>
       <c r="F94" s="3">
-        <v>-57600</v>
+        <v>-58600</v>
       </c>
       <c r="G94" s="3">
         <v>-1700</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E100" s="3">
-        <v>244500</v>
+        <v>248600</v>
       </c>
       <c r="F100" s="3">
-        <v>73200</v>
+        <v>74400</v>
       </c>
       <c r="G100" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3497,10 +3497,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>67100</v>
+        <v>68200</v>
       </c>
       <c r="E102" s="3">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="F102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +711,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>495900</v>
+        <v>633500</v>
       </c>
       <c r="E8" s="3">
-        <v>204300</v>
+        <v>398600</v>
       </c>
       <c r="F8" s="3">
-        <v>114500</v>
+        <v>205900</v>
       </c>
       <c r="G8" s="3">
-        <v>71400</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>115400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>71900</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -744,26 +747,29 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>268200</v>
+        <v>319800</v>
       </c>
       <c r="E9" s="3">
-        <v>146300</v>
+        <v>494200</v>
       </c>
       <c r="F9" s="3">
-        <v>80600</v>
+        <v>147400</v>
       </c>
       <c r="G9" s="3">
-        <v>46000</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>81300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>46400</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -777,26 +783,29 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>227700</v>
+        <v>313800</v>
       </c>
       <c r="E10" s="3">
-        <v>58000</v>
+        <v>-95600</v>
       </c>
       <c r="F10" s="3">
-        <v>33900</v>
+        <v>58500</v>
       </c>
       <c r="G10" s="3">
-        <v>25400</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>34100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>25500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,25 +838,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>66500</v>
+        <v>95800</v>
       </c>
       <c r="E12" s="3">
-        <v>43100</v>
+        <v>58700</v>
       </c>
       <c r="F12" s="3">
-        <v>28800</v>
+        <v>43400</v>
       </c>
       <c r="G12" s="3">
-        <v>20800</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>29000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>21000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,17 +907,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>9000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-8200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -918,15 +937,18 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,25 +995,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>770500</v>
+        <v>782300</v>
       </c>
       <c r="E17" s="3">
-        <v>298400</v>
+        <v>533000</v>
       </c>
       <c r="F17" s="3">
-        <v>148800</v>
+        <v>300700</v>
       </c>
       <c r="G17" s="3">
-        <v>91700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>150000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>92400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,26 +1028,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-274600</v>
+        <v>-148800</v>
       </c>
       <c r="E18" s="3">
-        <v>-94100</v>
+        <v>-134300</v>
       </c>
       <c r="F18" s="3">
-        <v>-34300</v>
+        <v>-94800</v>
       </c>
       <c r="G18" s="3">
-        <v>-20400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-34600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-20500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,26 +1083,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5400</v>
+        <v>8700</v>
       </c>
       <c r="E20" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4500</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,26 +1116,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-266600</v>
+        <v>-135300</v>
       </c>
       <c r="E21" s="3">
-        <v>-92100</v>
+        <v>-118100</v>
       </c>
       <c r="F21" s="3">
-        <v>-30000</v>
+        <v>-92800</v>
       </c>
       <c r="G21" s="3">
-        <v>-24300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-30200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-24500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1116,18 +1152,21 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="3">
         <v>4900</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,32 +1182,35 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-274000</v>
+        <v>-145100</v>
       </c>
       <c r="E23" s="3">
-        <v>-93800</v>
+        <v>-125600</v>
       </c>
       <c r="F23" s="3">
-        <v>-31000</v>
+        <v>-94500</v>
       </c>
       <c r="G23" s="3">
-        <v>-24900</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-31200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-25000</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1182,27 +1224,30 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,26 +1296,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-274500</v>
+        <v>-146100</v>
       </c>
       <c r="E26" s="3">
-        <v>-94200</v>
+        <v>-126100</v>
       </c>
       <c r="F26" s="3">
-        <v>-32800</v>
+        <v>-94900</v>
       </c>
       <c r="G26" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-33000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-25900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1281,26 +1332,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-274400</v>
+        <v>-141300</v>
       </c>
       <c r="E27" s="3">
-        <v>-99800</v>
+        <v>-126000</v>
       </c>
       <c r="F27" s="3">
-        <v>-37500</v>
+        <v>-100600</v>
       </c>
       <c r="G27" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-37700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-21100</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,32 +1404,35 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-15800</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-150600</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,27 +1512,30 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5400</v>
+        <v>-8700</v>
       </c>
       <c r="E32" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4500</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,26 +1548,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-274400</v>
+        <v>-157100</v>
       </c>
       <c r="E33" s="3">
-        <v>-99800</v>
+        <v>-276500</v>
       </c>
       <c r="F33" s="3">
-        <v>-37500</v>
+        <v>-100600</v>
       </c>
       <c r="G33" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-37700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-21100</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,26 +1620,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-274400</v>
+        <v>-157100</v>
       </c>
       <c r="E35" s="3">
-        <v>-99800</v>
+        <v>-276500</v>
       </c>
       <c r="F35" s="3">
-        <v>-37500</v>
+        <v>-100600</v>
       </c>
       <c r="G35" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-37700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-21100</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>95400</v>
+        <v>50900</v>
       </c>
       <c r="E41" s="3">
-        <v>27100</v>
+        <v>96100</v>
       </c>
       <c r="F41" s="3">
-        <v>6500</v>
+        <v>27300</v>
       </c>
       <c r="G41" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>6600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,26 +1765,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>91600</v>
+        <v>79500</v>
       </c>
       <c r="E42" s="3">
-        <v>226500</v>
+        <v>92300</v>
       </c>
       <c r="F42" s="3">
-        <v>61600</v>
+        <v>228300</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>62100</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1712,26 +1801,29 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>42700</v>
+        <v>40200</v>
       </c>
       <c r="E43" s="3">
-        <v>34700</v>
+        <v>43100</v>
       </c>
       <c r="F43" s="3">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="G43" s="3">
-        <v>11600</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>15100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>11700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,27 +1837,30 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23300</v>
+        <v>40300</v>
       </c>
       <c r="E44" s="3">
-        <v>11500</v>
+        <v>23500</v>
       </c>
       <c r="F44" s="3">
-        <v>3700</v>
+        <v>11600</v>
       </c>
       <c r="G44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,26 +1873,29 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36900</v>
+        <v>147200</v>
       </c>
       <c r="E45" s="3">
-        <v>17900</v>
+        <v>37100</v>
       </c>
       <c r="F45" s="3">
-        <v>6200</v>
+        <v>18100</v>
       </c>
       <c r="G45" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>6300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>289900</v>
+        <v>358100</v>
       </c>
       <c r="E46" s="3">
-        <v>317800</v>
+        <v>292100</v>
       </c>
       <c r="F46" s="3">
-        <v>93200</v>
+        <v>320200</v>
       </c>
       <c r="G46" s="3">
-        <v>22700</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>93900</v>
+      </c>
+      <c r="H46" s="3">
+        <v>22900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,18 +1945,21 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>6700</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1871,33 +1975,36 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23700</v>
+        <v>31300</v>
       </c>
       <c r="E48" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F48" s="3">
         <v>7600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1910,9 +2017,12 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,27 +2125,30 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E52" s="3">
         <v>3900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>324100</v>
+        <v>415600</v>
       </c>
       <c r="E54" s="3">
-        <v>326700</v>
+        <v>326600</v>
       </c>
       <c r="F54" s="3">
-        <v>97000</v>
+        <v>329200</v>
       </c>
       <c r="G54" s="3">
-        <v>25300</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>97800</v>
+      </c>
+      <c r="H54" s="3">
+        <v>25500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,26 +2268,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22100</v>
+        <v>25400</v>
       </c>
       <c r="E57" s="3">
-        <v>9800</v>
+        <v>22300</v>
       </c>
       <c r="F57" s="3">
-        <v>5400</v>
+        <v>9900</v>
       </c>
       <c r="G57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,26 +2301,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>137500</v>
+        <v>138500</v>
       </c>
       <c r="E58" s="3">
-        <v>137500</v>
+        <v>138500</v>
       </c>
       <c r="F58" s="3">
-        <v>137500</v>
+        <v>138500</v>
       </c>
       <c r="G58" s="3">
-        <v>137500</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>138500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>138500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2204,26 +2337,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>371700</v>
+        <v>314700</v>
       </c>
       <c r="E59" s="3">
-        <v>128100</v>
+        <v>374600</v>
       </c>
       <c r="F59" s="3">
-        <v>60700</v>
+        <v>129100</v>
       </c>
       <c r="G59" s="3">
-        <v>34700</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>61200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>35000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>531300</v>
+        <v>478600</v>
       </c>
       <c r="E60" s="3">
-        <v>275300</v>
+        <v>535400</v>
       </c>
       <c r="F60" s="3">
-        <v>203600</v>
+        <v>277500</v>
       </c>
       <c r="G60" s="3">
-        <v>175300</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>205200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>176700</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,9 +2409,12 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2303,21 +2445,24 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13100</v>
+        <v>11900</v>
       </c>
       <c r="E62" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F62" s="3">
         <v>4200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,12 +2478,15 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>544600</v>
+        <v>542900</v>
       </c>
       <c r="E66" s="3">
-        <v>279700</v>
+        <v>548700</v>
       </c>
       <c r="F66" s="3">
-        <v>203700</v>
+        <v>281800</v>
       </c>
       <c r="G66" s="3">
-        <v>137300</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>205300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>138300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2562,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>72100</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>72700</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-574700</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>-300300</v>
+        <v>-579200</v>
       </c>
       <c r="F72" s="3">
-        <v>-200500</v>
+        <v>-302600</v>
       </c>
       <c r="G72" s="3">
-        <v>-124900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-202100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-125900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-220500</v>
+        <v>-127300</v>
       </c>
       <c r="E76" s="3">
-        <v>47000</v>
+        <v>-222100</v>
       </c>
       <c r="F76" s="3">
-        <v>-178800</v>
+        <v>47300</v>
       </c>
       <c r="G76" s="3">
-        <v>-111900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-180200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-112800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,26 +3042,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-274400</v>
+        <v>-157100</v>
       </c>
       <c r="E81" s="3">
-        <v>-99800</v>
+        <v>-276500</v>
       </c>
       <c r="F81" s="3">
-        <v>-37500</v>
+        <v>-100600</v>
       </c>
       <c r="G81" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-37700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-21100</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,26 +3097,27 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E83" s="3">
         <v>2500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-50300</v>
+        <v>98400</v>
       </c>
       <c r="E89" s="3">
-        <v>-58300</v>
+        <v>-50700</v>
       </c>
       <c r="F89" s="3">
-        <v>-15700</v>
+        <v>-58700</v>
       </c>
       <c r="G89" s="3">
-        <v>-13600</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-15800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-13700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,26 +3365,27 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-2800</v>
-      </c>
       <c r="F91" s="3">
-        <v>-2100</v>
+        <v>-2900</v>
       </c>
       <c r="G91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,27 +3470,30 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>119100</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-169700</v>
+        <v>120100</v>
       </c>
       <c r="F94" s="3">
-        <v>-58600</v>
+        <v>-171000</v>
       </c>
       <c r="G94" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,26 +3666,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>4200</v>
       </c>
-      <c r="E100" s="3">
-        <v>248600</v>
-      </c>
       <c r="F100" s="3">
-        <v>74400</v>
+        <v>250500</v>
       </c>
       <c r="G100" s="3">
-        <v>16900</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>75000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>17000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3457,26 +3702,29 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4700</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3490,27 +3738,30 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>68200</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>20600</v>
+        <v>68800</v>
       </c>
       <c r="F102" s="3">
+        <v>20800</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>633500</v>
+        <v>591800</v>
       </c>
       <c r="E8" s="3">
-        <v>398600</v>
+        <v>372400</v>
       </c>
       <c r="F8" s="3">
-        <v>205900</v>
+        <v>177900</v>
       </c>
       <c r="G8" s="3">
-        <v>115400</v>
+        <v>107800</v>
       </c>
       <c r="H8" s="3">
-        <v>71900</v>
+        <v>67200</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>319800</v>
+        <v>298700</v>
       </c>
       <c r="E9" s="3">
-        <v>494200</v>
+        <v>209200</v>
       </c>
       <c r="F9" s="3">
-        <v>147400</v>
+        <v>266200</v>
       </c>
       <c r="G9" s="3">
-        <v>81300</v>
+        <v>75900</v>
       </c>
       <c r="H9" s="3">
-        <v>46400</v>
+        <v>43300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>313800</v>
+        <v>293100</v>
       </c>
       <c r="E10" s="3">
-        <v>-95600</v>
+        <v>163200</v>
       </c>
       <c r="F10" s="3">
-        <v>58500</v>
+        <v>-88300</v>
       </c>
       <c r="G10" s="3">
-        <v>34100</v>
+        <v>31900</v>
       </c>
       <c r="H10" s="3">
-        <v>25500</v>
+        <v>23900</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>95800</v>
+        <v>89500</v>
       </c>
       <c r="E12" s="3">
-        <v>58700</v>
+        <v>54800</v>
       </c>
       <c r="F12" s="3">
-        <v>43400</v>
+        <v>39800</v>
       </c>
       <c r="G12" s="3">
-        <v>29000</v>
+        <v>27100</v>
       </c>
       <c r="H12" s="3">
-        <v>21000</v>
+        <v>19600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -917,10 +917,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9000</v>
+        <v>10600</v>
       </c>
       <c r="E14" s="3">
-        <v>-8200</v>
+        <v>-7600</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>782300</v>
+        <v>733000</v>
       </c>
       <c r="E17" s="3">
-        <v>533000</v>
+        <v>490200</v>
       </c>
       <c r="F17" s="3">
-        <v>300700</v>
+        <v>245700</v>
       </c>
       <c r="G17" s="3">
-        <v>150000</v>
+        <v>140100</v>
       </c>
       <c r="H17" s="3">
-        <v>92400</v>
+        <v>86300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-148800</v>
+        <v>-141200</v>
       </c>
       <c r="E18" s="3">
-        <v>-134300</v>
+        <v>-117800</v>
       </c>
       <c r="F18" s="3">
-        <v>-94800</v>
+        <v>-67800</v>
       </c>
       <c r="G18" s="3">
-        <v>-34600</v>
+        <v>-32300</v>
       </c>
       <c r="H18" s="3">
-        <v>-20500</v>
+        <v>-19200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8700</v>
+        <v>10400</v>
       </c>
       <c r="E20" s="3">
-        <v>13700</v>
+        <v>5100</v>
       </c>
       <c r="F20" s="3">
-        <v>300</v>
+        <v>4700</v>
       </c>
       <c r="G20" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="H20" s="3">
-        <v>-4500</v>
+        <v>-4200</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-135300</v>
+        <v>-126300</v>
       </c>
       <c r="E21" s="3">
-        <v>-118100</v>
+        <v>-110300</v>
       </c>
       <c r="F21" s="3">
-        <v>-92800</v>
+        <v>-61500</v>
       </c>
       <c r="G21" s="3">
-        <v>-30200</v>
+        <v>-28200</v>
       </c>
       <c r="H21" s="3">
-        <v>-24500</v>
+        <v>-22900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,13 +1162,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="E22" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4500</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-145100</v>
+        <v>-135500</v>
       </c>
       <c r="E23" s="3">
-        <v>-125600</v>
+        <v>-117300</v>
       </c>
       <c r="F23" s="3">
-        <v>-94500</v>
+        <v>-67500</v>
       </c>
       <c r="G23" s="3">
-        <v>-31200</v>
+        <v>-29200</v>
       </c>
       <c r="H23" s="3">
-        <v>-25000</v>
+        <v>-23400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1237,13 +1237,13 @@
         <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
       </c>
       <c r="G24" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H24" s="3">
         <v>800</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-146100</v>
+        <v>-136500</v>
       </c>
       <c r="E26" s="3">
-        <v>-126100</v>
+        <v>-117700</v>
       </c>
       <c r="F26" s="3">
-        <v>-94900</v>
+        <v>-67800</v>
       </c>
       <c r="G26" s="3">
-        <v>-33000</v>
+        <v>-30800</v>
       </c>
       <c r="H26" s="3">
-        <v>-25900</v>
+        <v>-24200</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-141300</v>
+        <v>-131900</v>
       </c>
       <c r="E27" s="3">
-        <v>-126000</v>
+        <v>-117700</v>
       </c>
       <c r="F27" s="3">
-        <v>-100600</v>
+        <v>-73100</v>
       </c>
       <c r="G27" s="3">
-        <v>-37700</v>
+        <v>-35300</v>
       </c>
       <c r="H27" s="3">
-        <v>-21100</v>
+        <v>-19700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-15800</v>
+        <v>-14800</v>
       </c>
       <c r="E29" s="3">
-        <v>-150600</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+        <v>-140600</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-20800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8700</v>
+        <v>-10400</v>
       </c>
       <c r="E32" s="3">
-        <v>-13700</v>
+        <v>-5100</v>
       </c>
       <c r="F32" s="3">
-        <v>-300</v>
+        <v>-4700</v>
       </c>
       <c r="G32" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="H32" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-157100</v>
+        <v>-146700</v>
       </c>
       <c r="E33" s="3">
-        <v>-276500</v>
+        <v>-258300</v>
       </c>
       <c r="F33" s="3">
-        <v>-100600</v>
+        <v>-93900</v>
       </c>
       <c r="G33" s="3">
-        <v>-37700</v>
+        <v>-35300</v>
       </c>
       <c r="H33" s="3">
-        <v>-21100</v>
+        <v>-19700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-157100</v>
+        <v>-146700</v>
       </c>
       <c r="E35" s="3">
-        <v>-276500</v>
+        <v>-258300</v>
       </c>
       <c r="F35" s="3">
-        <v>-100600</v>
+        <v>-93900</v>
       </c>
       <c r="G35" s="3">
-        <v>-37700</v>
+        <v>-35300</v>
       </c>
       <c r="H35" s="3">
-        <v>-21100</v>
+        <v>-19700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50900</v>
+        <v>47600</v>
       </c>
       <c r="E41" s="3">
-        <v>96100</v>
+        <v>89800</v>
       </c>
       <c r="F41" s="3">
-        <v>27300</v>
+        <v>25500</v>
       </c>
       <c r="G41" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="H41" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,16 +1775,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>79500</v>
+        <v>74300</v>
       </c>
       <c r="E42" s="3">
-        <v>92300</v>
+        <v>86200</v>
       </c>
       <c r="F42" s="3">
-        <v>228300</v>
+        <v>213200</v>
       </c>
       <c r="G42" s="3">
-        <v>62100</v>
+        <v>58000</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40200</v>
+        <v>37800</v>
       </c>
       <c r="E43" s="3">
-        <v>43100</v>
+        <v>46000</v>
       </c>
       <c r="F43" s="3">
-        <v>35000</v>
+        <v>32700</v>
       </c>
       <c r="G43" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="H43" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>40300</v>
+        <v>37600</v>
       </c>
       <c r="E44" s="3">
-        <v>23500</v>
+        <v>21900</v>
       </c>
       <c r="F44" s="3">
-        <v>11600</v>
+        <v>10800</v>
       </c>
       <c r="G44" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>147200</v>
+        <v>137200</v>
       </c>
       <c r="E45" s="3">
-        <v>37100</v>
+        <v>28900</v>
       </c>
       <c r="F45" s="3">
-        <v>18100</v>
+        <v>16900</v>
       </c>
       <c r="G45" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="H45" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>358100</v>
+        <v>334500</v>
       </c>
       <c r="E46" s="3">
-        <v>292100</v>
+        <v>272800</v>
       </c>
       <c r="F46" s="3">
-        <v>320200</v>
+        <v>299100</v>
       </c>
       <c r="G46" s="3">
-        <v>93900</v>
+        <v>87700</v>
       </c>
       <c r="H46" s="3">
-        <v>22900</v>
+        <v>21400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1954,11 +1954,11 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>4800</v>
       </c>
       <c r="E47" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31300</v>
+        <v>29200</v>
       </c>
       <c r="E48" s="3">
-        <v>23900</v>
+        <v>22300</v>
       </c>
       <c r="F48" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="G48" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="H48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>16200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26200</v>
+        <v>3500</v>
       </c>
       <c r="E52" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="F52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>415600</v>
+        <v>388200</v>
       </c>
       <c r="E54" s="3">
-        <v>326600</v>
+        <v>305100</v>
       </c>
       <c r="F54" s="3">
-        <v>329200</v>
+        <v>307500</v>
       </c>
       <c r="G54" s="3">
-        <v>97800</v>
+        <v>91300</v>
       </c>
       <c r="H54" s="3">
-        <v>25500</v>
+        <v>23900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25400</v>
+        <v>23700</v>
       </c>
       <c r="E57" s="3">
-        <v>22300</v>
+        <v>20800</v>
       </c>
       <c r="F57" s="3">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="G57" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="H57" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>138500</v>
+        <v>129400</v>
       </c>
       <c r="E58" s="3">
-        <v>138500</v>
+        <v>129400</v>
       </c>
       <c r="F58" s="3">
-        <v>138500</v>
+        <v>129400</v>
       </c>
       <c r="G58" s="3">
-        <v>138500</v>
+        <v>129400</v>
       </c>
       <c r="H58" s="3">
-        <v>138500</v>
+        <v>129400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>314700</v>
+        <v>294000</v>
       </c>
       <c r="E59" s="3">
-        <v>374600</v>
+        <v>349900</v>
       </c>
       <c r="F59" s="3">
-        <v>129100</v>
+        <v>120500</v>
       </c>
       <c r="G59" s="3">
-        <v>61200</v>
+        <v>57200</v>
       </c>
       <c r="H59" s="3">
-        <v>35000</v>
+        <v>32700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>478600</v>
+        <v>447100</v>
       </c>
       <c r="E60" s="3">
-        <v>535400</v>
+        <v>500100</v>
       </c>
       <c r="F60" s="3">
-        <v>277500</v>
+        <v>259200</v>
       </c>
       <c r="G60" s="3">
-        <v>205200</v>
+        <v>191600</v>
       </c>
       <c r="H60" s="3">
-        <v>176700</v>
+        <v>165000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,7 +2419,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>37600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2455,13 +2455,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11900</v>
+        <v>11100</v>
       </c>
       <c r="E62" s="3">
-        <v>13200</v>
+        <v>12300</v>
       </c>
       <c r="F62" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>542900</v>
+        <v>507100</v>
       </c>
       <c r="E66" s="3">
-        <v>548700</v>
+        <v>512600</v>
       </c>
       <c r="F66" s="3">
-        <v>281800</v>
+        <v>263200</v>
       </c>
       <c r="G66" s="3">
-        <v>205300</v>
+        <v>191800</v>
       </c>
       <c r="H66" s="3">
-        <v>138300</v>
+        <v>129200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>72700</v>
+        <v>67900</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2794,20 +2794,20 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-687700</v>
       </c>
       <c r="E72" s="3">
-        <v>-579200</v>
+        <v>-541000</v>
       </c>
       <c r="F72" s="3">
-        <v>-302600</v>
+        <v>-282700</v>
       </c>
       <c r="G72" s="3">
-        <v>-202100</v>
+        <v>-188800</v>
       </c>
       <c r="H72" s="3">
-        <v>-125900</v>
+        <v>-117600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-127300</v>
+        <v>-118900</v>
       </c>
       <c r="E76" s="3">
-        <v>-222100</v>
+        <v>-207500</v>
       </c>
       <c r="F76" s="3">
-        <v>47300</v>
+        <v>44200</v>
       </c>
       <c r="G76" s="3">
-        <v>-180200</v>
+        <v>-168400</v>
       </c>
       <c r="H76" s="3">
-        <v>-112800</v>
+        <v>-105400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-157100</v>
+        <v>-146700</v>
       </c>
       <c r="E81" s="3">
-        <v>-276500</v>
+        <v>-258300</v>
       </c>
       <c r="F81" s="3">
-        <v>-100600</v>
+        <v>-93900</v>
       </c>
       <c r="G81" s="3">
-        <v>-37700</v>
+        <v>-35300</v>
       </c>
       <c r="H81" s="3">
-        <v>-21100</v>
+        <v>-19700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="E83" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>98400</v>
+        <v>-198400</v>
       </c>
       <c r="E89" s="3">
-        <v>-50700</v>
+        <v>-47400</v>
       </c>
       <c r="F89" s="3">
-        <v>-58700</v>
+        <v>-54900</v>
       </c>
       <c r="G89" s="3">
-        <v>-15800</v>
+        <v>-14800</v>
       </c>
       <c r="H89" s="3">
-        <v>-13700</v>
+        <v>-12800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10100</v>
+        <v>-9400</v>
       </c>
       <c r="E91" s="3">
-        <v>-5800</v>
+        <v>-5400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3479,20 +3479,20 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>6900</v>
       </c>
       <c r="E94" s="3">
-        <v>120100</v>
+        <v>112100</v>
       </c>
       <c r="F94" s="3">
-        <v>-171000</v>
+        <v>-159700</v>
       </c>
       <c r="G94" s="3">
-        <v>-59000</v>
+        <v>-55100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3675,20 +3675,20 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>262800</v>
       </c>
       <c r="E100" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="F100" s="3">
-        <v>250500</v>
+        <v>234000</v>
       </c>
       <c r="G100" s="3">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="H100" s="3">
-        <v>17000</v>
+        <v>15900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3711,11 +3711,11 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-3100</v>
       </c>
       <c r="E101" s="3">
-        <v>-4700</v>
+        <v>-4400</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3747,20 +3747,20 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>68300</v>
       </c>
       <c r="E102" s="3">
-        <v>68800</v>
+        <v>64200</v>
       </c>
       <c r="F102" s="3">
-        <v>20800</v>
+        <v>19400</v>
       </c>
       <c r="G102" s="3">
         <v>300</v>
       </c>
       <c r="H102" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>591800</v>
+        <v>586400</v>
       </c>
       <c r="E8" s="3">
-        <v>372400</v>
+        <v>369000</v>
       </c>
       <c r="F8" s="3">
-        <v>177900</v>
+        <v>176300</v>
       </c>
       <c r="G8" s="3">
-        <v>107800</v>
+        <v>106800</v>
       </c>
       <c r="H8" s="3">
-        <v>67200</v>
+        <v>66600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>298700</v>
+        <v>296000</v>
       </c>
       <c r="E9" s="3">
-        <v>209200</v>
+        <v>207300</v>
       </c>
       <c r="F9" s="3">
-        <v>266200</v>
+        <v>263800</v>
       </c>
       <c r="G9" s="3">
-        <v>75900</v>
+        <v>75200</v>
       </c>
       <c r="H9" s="3">
-        <v>43300</v>
+        <v>42900</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>293100</v>
+        <v>290400</v>
       </c>
       <c r="E10" s="3">
-        <v>163200</v>
+        <v>161700</v>
       </c>
       <c r="F10" s="3">
-        <v>-88300</v>
+        <v>-87500</v>
       </c>
       <c r="G10" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="H10" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>89500</v>
+        <v>88700</v>
       </c>
       <c r="E12" s="3">
-        <v>54800</v>
+        <v>54400</v>
       </c>
       <c r="F12" s="3">
-        <v>39800</v>
+        <v>39400</v>
       </c>
       <c r="G12" s="3">
-        <v>27100</v>
+        <v>26900</v>
       </c>
       <c r="H12" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="E14" s="3">
         <v>-7600</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>733000</v>
+        <v>726400</v>
       </c>
       <c r="E17" s="3">
-        <v>490200</v>
+        <v>485800</v>
       </c>
       <c r="F17" s="3">
-        <v>245700</v>
+        <v>243500</v>
       </c>
       <c r="G17" s="3">
-        <v>140100</v>
+        <v>138800</v>
       </c>
       <c r="H17" s="3">
-        <v>86300</v>
+        <v>85500</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-141200</v>
+        <v>-140000</v>
       </c>
       <c r="E18" s="3">
-        <v>-117800</v>
+        <v>-116800</v>
       </c>
       <c r="F18" s="3">
-        <v>-67800</v>
+        <v>-67200</v>
       </c>
       <c r="G18" s="3">
-        <v>-32300</v>
+        <v>-32000</v>
       </c>
       <c r="H18" s="3">
-        <v>-19200</v>
+        <v>-19000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,7 +1090,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="E20" s="3">
         <v>5100</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-126300</v>
+        <v>-125300</v>
       </c>
       <c r="E21" s="3">
-        <v>-110300</v>
+        <v>-109300</v>
       </c>
       <c r="F21" s="3">
-        <v>-61500</v>
+        <v>-60900</v>
       </c>
       <c r="G21" s="3">
-        <v>-28200</v>
+        <v>-28000</v>
       </c>
       <c r="H21" s="3">
-        <v>-22900</v>
+        <v>-22700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,13 +1162,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E22" s="3">
         <v>4600</v>
       </c>
       <c r="F22" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-135500</v>
+        <v>-134300</v>
       </c>
       <c r="E23" s="3">
-        <v>-117300</v>
+        <v>-116300</v>
       </c>
       <c r="F23" s="3">
-        <v>-67500</v>
+        <v>-66900</v>
       </c>
       <c r="G23" s="3">
-        <v>-29200</v>
+        <v>-28900</v>
       </c>
       <c r="H23" s="3">
-        <v>-23400</v>
+        <v>-23200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1243,7 +1243,7 @@
         <v>400</v>
       </c>
       <c r="G24" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H24" s="3">
         <v>800</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-136500</v>
+        <v>-135200</v>
       </c>
       <c r="E26" s="3">
-        <v>-117700</v>
+        <v>-116700</v>
       </c>
       <c r="F26" s="3">
-        <v>-67800</v>
+        <v>-67200</v>
       </c>
       <c r="G26" s="3">
-        <v>-30800</v>
+        <v>-30600</v>
       </c>
       <c r="H26" s="3">
-        <v>-24200</v>
+        <v>-23900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-131900</v>
+        <v>-130800</v>
       </c>
       <c r="E27" s="3">
-        <v>-117700</v>
+        <v>-116600</v>
       </c>
       <c r="F27" s="3">
-        <v>-73100</v>
+        <v>-72500</v>
       </c>
       <c r="G27" s="3">
-        <v>-35300</v>
+        <v>-34900</v>
       </c>
       <c r="H27" s="3">
-        <v>-19700</v>
+        <v>-19500</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-14800</v>
+        <v>-14600</v>
       </c>
       <c r="E29" s="3">
-        <v>-140600</v>
+        <v>-139400</v>
       </c>
       <c r="F29" s="3">
-        <v>-20800</v>
+        <v>-20600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1522,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="E32" s="3">
         <v>-5100</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-146700</v>
+        <v>-145400</v>
       </c>
       <c r="E33" s="3">
-        <v>-258300</v>
+        <v>-256000</v>
       </c>
       <c r="F33" s="3">
-        <v>-93900</v>
+        <v>-93100</v>
       </c>
       <c r="G33" s="3">
-        <v>-35300</v>
+        <v>-34900</v>
       </c>
       <c r="H33" s="3">
-        <v>-19700</v>
+        <v>-19500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-146700</v>
+        <v>-145400</v>
       </c>
       <c r="E35" s="3">
-        <v>-258300</v>
+        <v>-256000</v>
       </c>
       <c r="F35" s="3">
-        <v>-93900</v>
+        <v>-93100</v>
       </c>
       <c r="G35" s="3">
-        <v>-35300</v>
+        <v>-34900</v>
       </c>
       <c r="H35" s="3">
-        <v>-19700</v>
+        <v>-19500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47600</v>
+        <v>47100</v>
       </c>
       <c r="E41" s="3">
-        <v>89800</v>
+        <v>89000</v>
       </c>
       <c r="F41" s="3">
-        <v>25500</v>
+        <v>25300</v>
       </c>
       <c r="G41" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="H41" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,16 +1775,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>74300</v>
+        <v>73600</v>
       </c>
       <c r="E42" s="3">
-        <v>86200</v>
+        <v>85500</v>
       </c>
       <c r="F42" s="3">
-        <v>213200</v>
+        <v>211300</v>
       </c>
       <c r="G42" s="3">
-        <v>58000</v>
+        <v>57500</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>37800</v>
+        <v>37500</v>
       </c>
       <c r="E43" s="3">
-        <v>46000</v>
+        <v>45600</v>
       </c>
       <c r="F43" s="3">
-        <v>32700</v>
+        <v>32400</v>
       </c>
       <c r="G43" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="H43" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,13 +1847,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="E44" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="F44" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="G44" s="3">
         <v>3500</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>137200</v>
+        <v>135900</v>
       </c>
       <c r="E45" s="3">
-        <v>28900</v>
+        <v>28600</v>
       </c>
       <c r="F45" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="G45" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="H45" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>334500</v>
+        <v>331400</v>
       </c>
       <c r="E46" s="3">
-        <v>272800</v>
+        <v>270400</v>
       </c>
       <c r="F46" s="3">
-        <v>299100</v>
+        <v>296400</v>
       </c>
       <c r="G46" s="3">
-        <v>87700</v>
+        <v>86900</v>
       </c>
       <c r="H46" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,10 +1955,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E47" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1991,10 +1991,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29200</v>
+        <v>29000</v>
       </c>
       <c r="E48" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="F48" s="3">
         <v>7100</v>
@@ -2003,7 +2003,7 @@
         <v>2700</v>
       </c>
       <c r="H48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,7 +2027,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -2135,7 +2135,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E52" s="3">
         <v>3600</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>388200</v>
+        <v>384700</v>
       </c>
       <c r="E54" s="3">
-        <v>305100</v>
+        <v>302300</v>
       </c>
       <c r="F54" s="3">
-        <v>307500</v>
+        <v>304700</v>
       </c>
       <c r="G54" s="3">
-        <v>91300</v>
+        <v>90500</v>
       </c>
       <c r="H54" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,16 +2275,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="E57" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="F57" s="3">
         <v>9200</v>
       </c>
       <c r="G57" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H57" s="3">
         <v>2900</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>129400</v>
+        <v>128200</v>
       </c>
       <c r="E58" s="3">
-        <v>129400</v>
+        <v>128200</v>
       </c>
       <c r="F58" s="3">
-        <v>129400</v>
+        <v>128200</v>
       </c>
       <c r="G58" s="3">
-        <v>129400</v>
+        <v>128200</v>
       </c>
       <c r="H58" s="3">
-        <v>129400</v>
+        <v>128200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>294000</v>
+        <v>291300</v>
       </c>
       <c r="E59" s="3">
-        <v>349900</v>
+        <v>346700</v>
       </c>
       <c r="F59" s="3">
-        <v>120500</v>
+        <v>119500</v>
       </c>
       <c r="G59" s="3">
-        <v>57200</v>
+        <v>56600</v>
       </c>
       <c r="H59" s="3">
-        <v>32700</v>
+        <v>32400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>447100</v>
+        <v>443000</v>
       </c>
       <c r="E60" s="3">
-        <v>500100</v>
+        <v>495600</v>
       </c>
       <c r="F60" s="3">
-        <v>259200</v>
+        <v>256800</v>
       </c>
       <c r="G60" s="3">
-        <v>191600</v>
+        <v>189900</v>
       </c>
       <c r="H60" s="3">
-        <v>165000</v>
+        <v>163500</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,7 +2419,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37600</v>
+        <v>37200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="E62" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="F62" s="3">
         <v>3900</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>507100</v>
+        <v>502500</v>
       </c>
       <c r="E66" s="3">
-        <v>512600</v>
+        <v>507900</v>
       </c>
       <c r="F66" s="3">
-        <v>263200</v>
+        <v>260900</v>
       </c>
       <c r="G66" s="3">
-        <v>191800</v>
+        <v>190000</v>
       </c>
       <c r="H66" s="3">
-        <v>129200</v>
+        <v>128000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>67900</v>
+        <v>67300</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-687700</v>
+        <v>-681500</v>
       </c>
       <c r="E72" s="3">
-        <v>-541000</v>
+        <v>-536100</v>
       </c>
       <c r="F72" s="3">
-        <v>-282700</v>
+        <v>-280100</v>
       </c>
       <c r="G72" s="3">
-        <v>-188800</v>
+        <v>-187000</v>
       </c>
       <c r="H72" s="3">
-        <v>-117600</v>
+        <v>-116500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-118900</v>
+        <v>-117900</v>
       </c>
       <c r="E76" s="3">
-        <v>-207500</v>
+        <v>-205600</v>
       </c>
       <c r="F76" s="3">
-        <v>44200</v>
+        <v>43800</v>
       </c>
       <c r="G76" s="3">
-        <v>-168400</v>
+        <v>-166800</v>
       </c>
       <c r="H76" s="3">
-        <v>-105400</v>
+        <v>-104400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-146700</v>
+        <v>-145400</v>
       </c>
       <c r="E81" s="3">
-        <v>-258300</v>
+        <v>-256000</v>
       </c>
       <c r="F81" s="3">
-        <v>-93900</v>
+        <v>-93100</v>
       </c>
       <c r="G81" s="3">
-        <v>-35300</v>
+        <v>-34900</v>
       </c>
       <c r="H81" s="3">
-        <v>-19700</v>
+        <v>-19500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3110,7 +3110,7 @@
         <v>2400</v>
       </c>
       <c r="F83" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G83" s="3">
         <v>900</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-198400</v>
+        <v>-196600</v>
       </c>
       <c r="E89" s="3">
-        <v>-47400</v>
+        <v>-47000</v>
       </c>
       <c r="F89" s="3">
-        <v>-54900</v>
+        <v>-54400</v>
       </c>
       <c r="G89" s="3">
-        <v>-14800</v>
+        <v>-14700</v>
       </c>
       <c r="H89" s="3">
-        <v>-12800</v>
+        <v>-12700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,7 +3372,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="E91" s="3">
         <v>-5400</v>
@@ -3483,13 +3483,13 @@
         <v>6900</v>
       </c>
       <c r="E94" s="3">
-        <v>112100</v>
+        <v>111100</v>
       </c>
       <c r="F94" s="3">
-        <v>-159700</v>
+        <v>-158300</v>
       </c>
       <c r="G94" s="3">
-        <v>-55100</v>
+        <v>-54600</v>
       </c>
       <c r="H94" s="3">
         <v>-1600</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>262800</v>
+        <v>260500</v>
       </c>
       <c r="E100" s="3">
         <v>3900</v>
       </c>
       <c r="F100" s="3">
-        <v>234000</v>
+        <v>231800</v>
       </c>
       <c r="G100" s="3">
-        <v>70000</v>
+        <v>69400</v>
       </c>
       <c r="H100" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3748,13 +3748,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>68300</v>
+        <v>67700</v>
       </c>
       <c r="E102" s="3">
-        <v>64200</v>
+        <v>63700</v>
       </c>
       <c r="F102" s="3">
-        <v>19400</v>
+        <v>19200</v>
       </c>
       <c r="G102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>586400</v>
+        <v>559000</v>
       </c>
       <c r="E8" s="3">
-        <v>369000</v>
+        <v>351700</v>
       </c>
       <c r="F8" s="3">
-        <v>176300</v>
+        <v>168100</v>
       </c>
       <c r="G8" s="3">
-        <v>106800</v>
+        <v>101800</v>
       </c>
       <c r="H8" s="3">
-        <v>66600</v>
+        <v>63400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>296000</v>
+        <v>282200</v>
       </c>
       <c r="E9" s="3">
-        <v>207300</v>
+        <v>197600</v>
       </c>
       <c r="F9" s="3">
-        <v>263800</v>
+        <v>251500</v>
       </c>
       <c r="G9" s="3">
-        <v>75200</v>
+        <v>71700</v>
       </c>
       <c r="H9" s="3">
-        <v>42900</v>
+        <v>40900</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>290400</v>
+        <v>276800</v>
       </c>
       <c r="E10" s="3">
-        <v>161700</v>
+        <v>154200</v>
       </c>
       <c r="F10" s="3">
-        <v>-87500</v>
+        <v>-83400</v>
       </c>
       <c r="G10" s="3">
-        <v>31600</v>
+        <v>30100</v>
       </c>
       <c r="H10" s="3">
-        <v>23600</v>
+        <v>22500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>88700</v>
+        <v>84500</v>
       </c>
       <c r="E12" s="3">
-        <v>54400</v>
+        <v>51800</v>
       </c>
       <c r="F12" s="3">
-        <v>39400</v>
+        <v>37600</v>
       </c>
       <c r="G12" s="3">
-        <v>26900</v>
+        <v>25600</v>
       </c>
       <c r="H12" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -917,10 +917,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="E14" s="3">
-        <v>-7600</v>
+        <v>-7200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>726400</v>
+        <v>692400</v>
       </c>
       <c r="E17" s="3">
-        <v>485800</v>
+        <v>463000</v>
       </c>
       <c r="F17" s="3">
-        <v>243500</v>
+        <v>232100</v>
       </c>
       <c r="G17" s="3">
-        <v>138800</v>
+        <v>132300</v>
       </c>
       <c r="H17" s="3">
-        <v>85500</v>
+        <v>81500</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-140000</v>
+        <v>-133400</v>
       </c>
       <c r="E18" s="3">
-        <v>-116800</v>
+        <v>-111300</v>
       </c>
       <c r="F18" s="3">
-        <v>-67200</v>
+        <v>-64000</v>
       </c>
       <c r="G18" s="3">
-        <v>-32000</v>
+        <v>-30500</v>
       </c>
       <c r="H18" s="3">
-        <v>-19000</v>
+        <v>-18100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="E20" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="F20" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="G20" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H20" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-125300</v>
+        <v>-119400</v>
       </c>
       <c r="E21" s="3">
-        <v>-109300</v>
+        <v>-104200</v>
       </c>
       <c r="F21" s="3">
-        <v>-60900</v>
+        <v>-58100</v>
       </c>
       <c r="G21" s="3">
-        <v>-28000</v>
+        <v>-26700</v>
       </c>
       <c r="H21" s="3">
-        <v>-22700</v>
+        <v>-21600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,13 +1162,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="E22" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="F22" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-134300</v>
+        <v>-128000</v>
       </c>
       <c r="E23" s="3">
-        <v>-116300</v>
+        <v>-110800</v>
       </c>
       <c r="F23" s="3">
-        <v>-66900</v>
+        <v>-63700</v>
       </c>
       <c r="G23" s="3">
-        <v>-28900</v>
+        <v>-27600</v>
       </c>
       <c r="H23" s="3">
-        <v>-23200</v>
+        <v>-22100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E24" s="3">
         <v>400</v>
       </c>
       <c r="F24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>1600</v>
       </c>
       <c r="H24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-135200</v>
+        <v>-128900</v>
       </c>
       <c r="E26" s="3">
-        <v>-116700</v>
+        <v>-111200</v>
       </c>
       <c r="F26" s="3">
-        <v>-67200</v>
+        <v>-64100</v>
       </c>
       <c r="G26" s="3">
-        <v>-30600</v>
+        <v>-29100</v>
       </c>
       <c r="H26" s="3">
-        <v>-23900</v>
+        <v>-22800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-130800</v>
+        <v>-124600</v>
       </c>
       <c r="E27" s="3">
-        <v>-116600</v>
+        <v>-111100</v>
       </c>
       <c r="F27" s="3">
-        <v>-72500</v>
+        <v>-69100</v>
       </c>
       <c r="G27" s="3">
-        <v>-34900</v>
+        <v>-33300</v>
       </c>
       <c r="H27" s="3">
-        <v>-19500</v>
+        <v>-18600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-14600</v>
+        <v>-14000</v>
       </c>
       <c r="E29" s="3">
-        <v>-139400</v>
+        <v>-132800</v>
       </c>
       <c r="F29" s="3">
-        <v>-20600</v>
+        <v>-19600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10300</v>
+        <v>-9800</v>
       </c>
       <c r="E32" s="3">
-        <v>-5100</v>
+        <v>-4800</v>
       </c>
       <c r="F32" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="G32" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="H32" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-145400</v>
+        <v>-138600</v>
       </c>
       <c r="E33" s="3">
-        <v>-256000</v>
+        <v>-244000</v>
       </c>
       <c r="F33" s="3">
-        <v>-93100</v>
+        <v>-88700</v>
       </c>
       <c r="G33" s="3">
-        <v>-34900</v>
+        <v>-33300</v>
       </c>
       <c r="H33" s="3">
-        <v>-19500</v>
+        <v>-18600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-145400</v>
+        <v>-138600</v>
       </c>
       <c r="E35" s="3">
-        <v>-256000</v>
+        <v>-244000</v>
       </c>
       <c r="F35" s="3">
-        <v>-93100</v>
+        <v>-88700</v>
       </c>
       <c r="G35" s="3">
-        <v>-34900</v>
+        <v>-33300</v>
       </c>
       <c r="H35" s="3">
-        <v>-19500</v>
+        <v>-18600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47100</v>
+        <v>44900</v>
       </c>
       <c r="E41" s="3">
-        <v>89000</v>
+        <v>84800</v>
       </c>
       <c r="F41" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="G41" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="H41" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,16 +1775,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>73600</v>
+        <v>70200</v>
       </c>
       <c r="E42" s="3">
-        <v>85500</v>
+        <v>81500</v>
       </c>
       <c r="F42" s="3">
-        <v>211300</v>
+        <v>201400</v>
       </c>
       <c r="G42" s="3">
-        <v>57500</v>
+        <v>54800</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>37500</v>
+        <v>35700</v>
       </c>
       <c r="E43" s="3">
-        <v>45600</v>
+        <v>43500</v>
       </c>
       <c r="F43" s="3">
-        <v>32400</v>
+        <v>30900</v>
       </c>
       <c r="G43" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="H43" s="3">
-        <v>10900</v>
+        <v>10300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>37300</v>
+        <v>35600</v>
       </c>
       <c r="E44" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="F44" s="3">
-        <v>10700</v>
+        <v>10200</v>
       </c>
       <c r="G44" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>135900</v>
+        <v>129600</v>
       </c>
       <c r="E45" s="3">
-        <v>28600</v>
+        <v>27300</v>
       </c>
       <c r="F45" s="3">
-        <v>16700</v>
+        <v>16000</v>
       </c>
       <c r="G45" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="H45" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>331400</v>
+        <v>315900</v>
       </c>
       <c r="E46" s="3">
-        <v>270400</v>
+        <v>257700</v>
       </c>
       <c r="F46" s="3">
-        <v>296400</v>
+        <v>282600</v>
       </c>
       <c r="G46" s="3">
-        <v>86900</v>
+        <v>82800</v>
       </c>
       <c r="H46" s="3">
-        <v>21200</v>
+        <v>20200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,10 +1955,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="E47" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1991,16 +1991,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29000</v>
+        <v>27600</v>
       </c>
       <c r="E48" s="3">
-        <v>22100</v>
+        <v>21100</v>
       </c>
       <c r="F48" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="G48" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H48" s="3">
         <v>1900</v>
@@ -2027,7 +2027,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16100</v>
+        <v>15300</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E52" s="3">
         <v>3400</v>
       </c>
-      <c r="E52" s="3">
-        <v>3600</v>
-      </c>
       <c r="F52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G52" s="3">
         <v>900</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>384700</v>
+        <v>366700</v>
       </c>
       <c r="E54" s="3">
-        <v>302300</v>
+        <v>288200</v>
       </c>
       <c r="F54" s="3">
-        <v>304700</v>
+        <v>290400</v>
       </c>
       <c r="G54" s="3">
-        <v>90500</v>
+        <v>86300</v>
       </c>
       <c r="H54" s="3">
-        <v>23600</v>
+        <v>22500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="E57" s="3">
-        <v>20600</v>
+        <v>19700</v>
       </c>
       <c r="F57" s="3">
-        <v>9200</v>
+        <v>8700</v>
       </c>
       <c r="G57" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="H57" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>128200</v>
+        <v>122200</v>
       </c>
       <c r="E58" s="3">
-        <v>128200</v>
+        <v>122200</v>
       </c>
       <c r="F58" s="3">
-        <v>128200</v>
+        <v>122200</v>
       </c>
       <c r="G58" s="3">
-        <v>128200</v>
+        <v>122200</v>
       </c>
       <c r="H58" s="3">
-        <v>128200</v>
+        <v>122200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>291300</v>
+        <v>277700</v>
       </c>
       <c r="E59" s="3">
-        <v>346700</v>
+        <v>330500</v>
       </c>
       <c r="F59" s="3">
-        <v>119500</v>
+        <v>113900</v>
       </c>
       <c r="G59" s="3">
-        <v>56600</v>
+        <v>54000</v>
       </c>
       <c r="H59" s="3">
-        <v>32400</v>
+        <v>30900</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>443000</v>
+        <v>422300</v>
       </c>
       <c r="E60" s="3">
-        <v>495600</v>
+        <v>472400</v>
       </c>
       <c r="F60" s="3">
-        <v>256800</v>
+        <v>244800</v>
       </c>
       <c r="G60" s="3">
-        <v>189900</v>
+        <v>181000</v>
       </c>
       <c r="H60" s="3">
-        <v>163500</v>
+        <v>155900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,7 +2419,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37200</v>
+        <v>35500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2455,13 +2455,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="E62" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="F62" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>502500</v>
+        <v>479000</v>
       </c>
       <c r="E66" s="3">
-        <v>507900</v>
+        <v>484200</v>
       </c>
       <c r="F66" s="3">
-        <v>260900</v>
+        <v>248700</v>
       </c>
       <c r="G66" s="3">
-        <v>190000</v>
+        <v>181100</v>
       </c>
       <c r="H66" s="3">
-        <v>128000</v>
+        <v>122000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>67300</v>
+        <v>64100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-681500</v>
+        <v>-649600</v>
       </c>
       <c r="E72" s="3">
-        <v>-536100</v>
+        <v>-511000</v>
       </c>
       <c r="F72" s="3">
-        <v>-280100</v>
+        <v>-267000</v>
       </c>
       <c r="G72" s="3">
-        <v>-187000</v>
+        <v>-178300</v>
       </c>
       <c r="H72" s="3">
-        <v>-116500</v>
+        <v>-111100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-117900</v>
+        <v>-112300</v>
       </c>
       <c r="E76" s="3">
-        <v>-205600</v>
+        <v>-196000</v>
       </c>
       <c r="F76" s="3">
-        <v>43800</v>
+        <v>41800</v>
       </c>
       <c r="G76" s="3">
-        <v>-166800</v>
+        <v>-159000</v>
       </c>
       <c r="H76" s="3">
-        <v>-104400</v>
+        <v>-99500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-145400</v>
+        <v>-138600</v>
       </c>
       <c r="E81" s="3">
-        <v>-256000</v>
+        <v>-244000</v>
       </c>
       <c r="F81" s="3">
-        <v>-93100</v>
+        <v>-88700</v>
       </c>
       <c r="G81" s="3">
-        <v>-34900</v>
+        <v>-33300</v>
       </c>
       <c r="H81" s="3">
-        <v>-19500</v>
+        <v>-18600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,10 +3104,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="E83" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="F83" s="3">
         <v>1500</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-196600</v>
+        <v>-187400</v>
       </c>
       <c r="E89" s="3">
-        <v>-47000</v>
+        <v>-44800</v>
       </c>
       <c r="F89" s="3">
-        <v>-54400</v>
+        <v>-51800</v>
       </c>
       <c r="G89" s="3">
-        <v>-14700</v>
+        <v>-14000</v>
       </c>
       <c r="H89" s="3">
-        <v>-12700</v>
+        <v>-12100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9300</v>
+        <v>-8800</v>
       </c>
       <c r="E91" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="E94" s="3">
-        <v>111100</v>
+        <v>105900</v>
       </c>
       <c r="F94" s="3">
-        <v>-158300</v>
+        <v>-150900</v>
       </c>
       <c r="G94" s="3">
-        <v>-54600</v>
+        <v>-52100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>260500</v>
+        <v>248300</v>
       </c>
       <c r="E100" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="F100" s="3">
-        <v>231800</v>
+        <v>221000</v>
       </c>
       <c r="G100" s="3">
-        <v>69400</v>
+        <v>66100</v>
       </c>
       <c r="H100" s="3">
-        <v>15700</v>
+        <v>15000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,10 +3712,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="E101" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>67700</v>
+        <v>64500</v>
       </c>
       <c r="E102" s="3">
-        <v>63700</v>
+        <v>60700</v>
       </c>
       <c r="F102" s="3">
-        <v>19200</v>
+        <v>18300</v>
       </c>
       <c r="G102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,29 +714,32 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>559000</v>
+        <v>720000</v>
       </c>
       <c r="E8" s="3">
-        <v>351700</v>
+        <v>576700</v>
       </c>
       <c r="F8" s="3">
-        <v>168100</v>
+        <v>362900</v>
       </c>
       <c r="G8" s="3">
-        <v>101800</v>
+        <v>173400</v>
       </c>
       <c r="H8" s="3">
-        <v>63400</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>105100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>65500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -750,29 +753,32 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>282200</v>
+        <v>348500</v>
       </c>
       <c r="E9" s="3">
-        <v>197600</v>
+        <v>291100</v>
       </c>
       <c r="F9" s="3">
-        <v>251500</v>
+        <v>203800</v>
       </c>
       <c r="G9" s="3">
-        <v>71700</v>
+        <v>259500</v>
       </c>
       <c r="H9" s="3">
-        <v>40900</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>74000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>42200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -786,29 +792,32 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>276800</v>
+        <v>371500</v>
       </c>
       <c r="E10" s="3">
-        <v>154200</v>
+        <v>285600</v>
       </c>
       <c r="F10" s="3">
-        <v>-83400</v>
+        <v>159100</v>
       </c>
       <c r="G10" s="3">
-        <v>30100</v>
+        <v>-86100</v>
       </c>
       <c r="H10" s="3">
-        <v>22500</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>31100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>23300</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,28 +851,29 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>84500</v>
+        <v>115400</v>
       </c>
       <c r="E12" s="3">
-        <v>51800</v>
+        <v>87200</v>
       </c>
       <c r="F12" s="3">
-        <v>37600</v>
+        <v>53500</v>
       </c>
       <c r="G12" s="3">
-        <v>25600</v>
+        <v>38800</v>
       </c>
       <c r="H12" s="3">
-        <v>18500</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>26400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>19100</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,20 +926,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>10300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-7500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -940,15 +959,18 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,28 +1021,29 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>692400</v>
+        <v>831300</v>
       </c>
       <c r="E17" s="3">
-        <v>463000</v>
+        <v>714400</v>
       </c>
       <c r="F17" s="3">
-        <v>232100</v>
+        <v>477700</v>
       </c>
       <c r="G17" s="3">
-        <v>132300</v>
+        <v>239500</v>
       </c>
       <c r="H17" s="3">
-        <v>81500</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>136500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>84100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1031,29 +1057,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-133400</v>
+        <v>-111300</v>
       </c>
       <c r="E18" s="3">
-        <v>-111300</v>
+        <v>-137600</v>
       </c>
       <c r="F18" s="3">
-        <v>-64000</v>
+        <v>-114800</v>
       </c>
       <c r="G18" s="3">
-        <v>-30500</v>
+        <v>-66000</v>
       </c>
       <c r="H18" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-31500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-18700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,28 +1116,29 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9800</v>
+        <v>13600</v>
       </c>
       <c r="E20" s="3">
-        <v>4800</v>
+        <v>10100</v>
       </c>
       <c r="F20" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="G20" s="3">
-        <v>2900</v>
+        <v>4600</v>
       </c>
       <c r="H20" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>3000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-4100</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1119,29 +1152,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-119400</v>
+        <v>-91600</v>
       </c>
       <c r="E21" s="3">
-        <v>-104200</v>
+        <v>-123200</v>
       </c>
       <c r="F21" s="3">
-        <v>-58100</v>
+        <v>-107500</v>
       </c>
       <c r="G21" s="3">
-        <v>-26700</v>
+        <v>-59900</v>
       </c>
       <c r="H21" s="3">
-        <v>-21600</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-27500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-22300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1155,24 +1191,27 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4400</v>
+        <v>6600</v>
       </c>
       <c r="E22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G22" s="3">
         <v>4300</v>
       </c>
-      <c r="F22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,35 +1224,38 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-128000</v>
+        <v>-104300</v>
       </c>
       <c r="E23" s="3">
-        <v>-110800</v>
+        <v>-132000</v>
       </c>
       <c r="F23" s="3">
-        <v>-63700</v>
+        <v>-114300</v>
       </c>
       <c r="G23" s="3">
-        <v>-27600</v>
+        <v>-65800</v>
       </c>
       <c r="H23" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-28400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-22800</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1227,30 +1269,33 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,29 +1347,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-128900</v>
+        <v>-106200</v>
       </c>
       <c r="E26" s="3">
-        <v>-111200</v>
+        <v>-133000</v>
       </c>
       <c r="F26" s="3">
-        <v>-64100</v>
+        <v>-114800</v>
       </c>
       <c r="G26" s="3">
-        <v>-29100</v>
+        <v>-66100</v>
       </c>
       <c r="H26" s="3">
-        <v>-22800</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-30100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-23500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1335,29 +1386,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-124600</v>
+        <v>-103500</v>
       </c>
       <c r="E27" s="3">
-        <v>-111100</v>
+        <v>-128600</v>
       </c>
       <c r="F27" s="3">
-        <v>-69100</v>
+        <v>-114700</v>
       </c>
       <c r="G27" s="3">
-        <v>-33300</v>
+        <v>-71300</v>
       </c>
       <c r="H27" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-34400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-19200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,23 +1464,26 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-14000</v>
+        <v>-900</v>
       </c>
       <c r="E29" s="3">
-        <v>-132800</v>
+        <v>-14400</v>
       </c>
       <c r="F29" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+        <v>-137100</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-20300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1434,8 +1494,8 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,29 +1581,32 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9800</v>
+        <v>-13600</v>
       </c>
       <c r="E32" s="3">
-        <v>-4800</v>
+        <v>-10100</v>
       </c>
       <c r="F32" s="3">
-        <v>-4500</v>
+        <v>-5000</v>
       </c>
       <c r="G32" s="3">
-        <v>-2900</v>
+        <v>-4600</v>
       </c>
       <c r="H32" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>-3000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4100</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1551,29 +1620,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-138600</v>
+        <v>-104400</v>
       </c>
       <c r="E33" s="3">
-        <v>-244000</v>
+        <v>-143000</v>
       </c>
       <c r="F33" s="3">
-        <v>-88700</v>
+        <v>-251700</v>
       </c>
       <c r="G33" s="3">
-        <v>-33300</v>
+        <v>-91500</v>
       </c>
       <c r="H33" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-34400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-19200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,29 +1698,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-138600</v>
+        <v>-104400</v>
       </c>
       <c r="E35" s="3">
-        <v>-244000</v>
+        <v>-143000</v>
       </c>
       <c r="F35" s="3">
-        <v>-88700</v>
+        <v>-251700</v>
       </c>
       <c r="G35" s="3">
-        <v>-33300</v>
+        <v>-91500</v>
       </c>
       <c r="H35" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-34400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-19200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1659,35 +1737,38 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,28 +1818,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44900</v>
+        <v>112500</v>
       </c>
       <c r="E41" s="3">
-        <v>84800</v>
+        <v>46400</v>
       </c>
       <c r="F41" s="3">
-        <v>24100</v>
+        <v>87500</v>
       </c>
       <c r="G41" s="3">
-        <v>5800</v>
+        <v>24900</v>
       </c>
       <c r="H41" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>6000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>5700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1768,29 +1854,32 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>70200</v>
+        <v>33400</v>
       </c>
       <c r="E42" s="3">
-        <v>81500</v>
+        <v>72400</v>
       </c>
       <c r="F42" s="3">
-        <v>201400</v>
+        <v>84100</v>
       </c>
       <c r="G42" s="3">
-        <v>54800</v>
+        <v>207800</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>56500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1804,29 +1893,32 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>35700</v>
+        <v>59300</v>
       </c>
       <c r="E43" s="3">
-        <v>43500</v>
+        <v>36800</v>
       </c>
       <c r="F43" s="3">
-        <v>30900</v>
+        <v>44900</v>
       </c>
       <c r="G43" s="3">
-        <v>13400</v>
+        <v>31900</v>
       </c>
       <c r="H43" s="3">
-        <v>10300</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>13800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>10700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1840,30 +1932,33 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>35600</v>
+        <v>33400</v>
       </c>
       <c r="E44" s="3">
-        <v>20700</v>
+        <v>36700</v>
       </c>
       <c r="F44" s="3">
-        <v>10200</v>
+        <v>21400</v>
       </c>
       <c r="G44" s="3">
-        <v>3300</v>
+        <v>10500</v>
       </c>
       <c r="H44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1876,29 +1971,32 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>129600</v>
+        <v>30000</v>
       </c>
       <c r="E45" s="3">
-        <v>27300</v>
+        <v>133700</v>
       </c>
       <c r="F45" s="3">
-        <v>16000</v>
+        <v>28200</v>
       </c>
       <c r="G45" s="3">
-        <v>5600</v>
+        <v>16500</v>
       </c>
       <c r="H45" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>5700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>4200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1912,29 +2010,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>315900</v>
+        <v>268600</v>
       </c>
       <c r="E46" s="3">
-        <v>257700</v>
+        <v>326000</v>
       </c>
       <c r="F46" s="3">
-        <v>282600</v>
+        <v>265900</v>
       </c>
       <c r="G46" s="3">
-        <v>82800</v>
+        <v>291500</v>
       </c>
       <c r="H46" s="3">
-        <v>20200</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>85500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>20800</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1948,20 +2049,23 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="E47" s="3">
-        <v>5900</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>4700</v>
+      </c>
+      <c r="F47" s="3">
+        <v>6100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1978,36 +2082,39 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27600</v>
+        <v>24500</v>
       </c>
       <c r="E48" s="3">
-        <v>21100</v>
+        <v>28500</v>
       </c>
       <c r="F48" s="3">
-        <v>6700</v>
+        <v>21800</v>
       </c>
       <c r="G48" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,17 +2127,20 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15300</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>15800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>15800</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2047,8 +2157,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,30 +2244,33 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3300</v>
+        <v>5000</v>
       </c>
       <c r="E52" s="3">
         <v>3400</v>
       </c>
       <c r="F52" s="3">
-        <v>1100</v>
+        <v>3500</v>
       </c>
       <c r="G52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,29 +2322,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>366700</v>
+        <v>326900</v>
       </c>
       <c r="E54" s="3">
-        <v>288200</v>
+        <v>378300</v>
       </c>
       <c r="F54" s="3">
-        <v>290400</v>
+        <v>297300</v>
       </c>
       <c r="G54" s="3">
-        <v>86300</v>
+        <v>299700</v>
       </c>
       <c r="H54" s="3">
-        <v>22500</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>89000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>23200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,28 +2398,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22400</v>
+        <v>40600</v>
       </c>
       <c r="E57" s="3">
-        <v>19700</v>
+        <v>23100</v>
       </c>
       <c r="F57" s="3">
-        <v>8700</v>
+        <v>20300</v>
       </c>
       <c r="G57" s="3">
-        <v>4800</v>
+        <v>9000</v>
       </c>
       <c r="H57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2304,29 +2434,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>122200</v>
+        <v>126100</v>
       </c>
       <c r="E58" s="3">
-        <v>122200</v>
+        <v>126100</v>
       </c>
       <c r="F58" s="3">
-        <v>122200</v>
+        <v>126100</v>
       </c>
       <c r="G58" s="3">
-        <v>122200</v>
+        <v>126100</v>
       </c>
       <c r="H58" s="3">
-        <v>122200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>126100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>126100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2340,29 +2473,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>277700</v>
+        <v>289900</v>
       </c>
       <c r="E59" s="3">
-        <v>330500</v>
+        <v>286500</v>
       </c>
       <c r="F59" s="3">
-        <v>113900</v>
+        <v>341000</v>
       </c>
       <c r="G59" s="3">
-        <v>54000</v>
+        <v>117500</v>
       </c>
       <c r="H59" s="3">
-        <v>30900</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>55700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>31900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2376,29 +2512,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>422300</v>
+        <v>456500</v>
       </c>
       <c r="E60" s="3">
-        <v>472400</v>
+        <v>435700</v>
       </c>
       <c r="F60" s="3">
-        <v>244800</v>
+        <v>487400</v>
       </c>
       <c r="G60" s="3">
-        <v>181000</v>
+        <v>252600</v>
       </c>
       <c r="H60" s="3">
-        <v>155900</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>186800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>160800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2412,17 +2551,20 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>35500</v>
+        <v>75000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>36600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2448,23 +2590,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>11700</v>
+        <v>10800</v>
       </c>
       <c r="F62" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>12000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2481,12 +2626,15 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,29 +2746,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>479000</v>
+        <v>547400</v>
       </c>
       <c r="E66" s="3">
-        <v>484200</v>
+        <v>494200</v>
       </c>
       <c r="F66" s="3">
-        <v>248700</v>
+        <v>499600</v>
       </c>
       <c r="G66" s="3">
-        <v>181100</v>
+        <v>256600</v>
       </c>
       <c r="H66" s="3">
-        <v>122000</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>186900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>125900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2732,10 +2899,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>64100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>66200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,29 +2958,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-649600</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>-511000</v>
+        <v>-670200</v>
       </c>
       <c r="F72" s="3">
-        <v>-267000</v>
+        <v>-527200</v>
       </c>
       <c r="G72" s="3">
-        <v>-178300</v>
+        <v>-275500</v>
       </c>
       <c r="H72" s="3">
-        <v>-111100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-184000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-114600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,29 +3114,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-112300</v>
+        <v>-220500</v>
       </c>
       <c r="E76" s="3">
-        <v>-196000</v>
+        <v>-115900</v>
       </c>
       <c r="F76" s="3">
-        <v>41800</v>
+        <v>-202200</v>
       </c>
       <c r="G76" s="3">
-        <v>-159000</v>
+        <v>43100</v>
       </c>
       <c r="H76" s="3">
-        <v>-99500</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-164100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-102700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,35 +3192,38 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,29 +3236,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-138600</v>
+        <v>-104400</v>
       </c>
       <c r="E81" s="3">
-        <v>-244000</v>
+        <v>-143000</v>
       </c>
       <c r="F81" s="3">
-        <v>-88700</v>
+        <v>-251700</v>
       </c>
       <c r="G81" s="3">
-        <v>-33300</v>
+        <v>-91500</v>
       </c>
       <c r="H81" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-34400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-19200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,29 +3295,30 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4200</v>
+        <v>6100</v>
       </c>
       <c r="E83" s="3">
-        <v>2200</v>
+        <v>4300</v>
       </c>
       <c r="F83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,29 +3526,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-187400</v>
+        <v>76300</v>
       </c>
       <c r="E89" s="3">
-        <v>-44800</v>
+        <v>-193400</v>
       </c>
       <c r="F89" s="3">
-        <v>-51800</v>
+        <v>-46200</v>
       </c>
       <c r="G89" s="3">
-        <v>-14000</v>
+        <v>-53500</v>
       </c>
       <c r="H89" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-14400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-12500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,29 +3585,30 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8800</v>
+        <v>-10000</v>
       </c>
       <c r="E91" s="3">
-        <v>-5100</v>
+        <v>-9100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2500</v>
+        <v>-5300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1900</v>
+        <v>-2600</v>
       </c>
       <c r="H91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,29 +3699,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>6600</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>105900</v>
+        <v>6800</v>
       </c>
       <c r="F94" s="3">
-        <v>-150900</v>
+        <v>109300</v>
       </c>
       <c r="G94" s="3">
-        <v>-52100</v>
+        <v>-155700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-53700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,29 +3911,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>248300</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>3700</v>
+        <v>256200</v>
       </c>
       <c r="F100" s="3">
-        <v>221000</v>
+        <v>3800</v>
       </c>
       <c r="G100" s="3">
-        <v>66100</v>
+        <v>228000</v>
       </c>
       <c r="H100" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>68200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>15500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3705,29 +3950,32 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-2900</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>-4200</v>
+        <v>-3000</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3741,30 +3989,33 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>64500</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>60700</v>
+        <v>66500</v>
       </c>
       <c r="F102" s="3">
-        <v>18300</v>
+        <v>62600</v>
       </c>
       <c r="G102" s="3">
+        <v>18900</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>DAO</t>
   </si>
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>720000</v>
+        <v>712600</v>
       </c>
       <c r="E8" s="3">
-        <v>576700</v>
+        <v>570800</v>
       </c>
       <c r="F8" s="3">
-        <v>362900</v>
+        <v>359200</v>
       </c>
       <c r="G8" s="3">
-        <v>173400</v>
+        <v>171600</v>
       </c>
       <c r="H8" s="3">
-        <v>105100</v>
+        <v>104000</v>
       </c>
       <c r="I8" s="3">
-        <v>65500</v>
+        <v>64800</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>348500</v>
+        <v>345000</v>
       </c>
       <c r="E9" s="3">
-        <v>291100</v>
+        <v>288100</v>
       </c>
       <c r="F9" s="3">
-        <v>203800</v>
+        <v>201800</v>
       </c>
       <c r="G9" s="3">
-        <v>259500</v>
+        <v>256800</v>
       </c>
       <c r="H9" s="3">
-        <v>74000</v>
+        <v>73200</v>
       </c>
       <c r="I9" s="3">
-        <v>42200</v>
+        <v>41800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>371500</v>
+        <v>367700</v>
       </c>
       <c r="E10" s="3">
-        <v>285600</v>
+        <v>282700</v>
       </c>
       <c r="F10" s="3">
-        <v>159100</v>
+        <v>157400</v>
       </c>
       <c r="G10" s="3">
-        <v>-86100</v>
+        <v>-85200</v>
       </c>
       <c r="H10" s="3">
-        <v>31100</v>
+        <v>30800</v>
       </c>
       <c r="I10" s="3">
-        <v>23300</v>
+        <v>23000</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>115400</v>
+        <v>114300</v>
       </c>
       <c r="E12" s="3">
-        <v>87200</v>
+        <v>86300</v>
       </c>
       <c r="F12" s="3">
-        <v>53500</v>
+        <v>52900</v>
       </c>
       <c r="G12" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="H12" s="3">
-        <v>26400</v>
+        <v>26200</v>
       </c>
       <c r="I12" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -936,13 +936,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="F14" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>831300</v>
+        <v>824400</v>
       </c>
       <c r="E17" s="3">
-        <v>714400</v>
+        <v>707100</v>
       </c>
       <c r="F17" s="3">
-        <v>477700</v>
+        <v>472800</v>
       </c>
       <c r="G17" s="3">
-        <v>239500</v>
+        <v>237000</v>
       </c>
       <c r="H17" s="3">
-        <v>136500</v>
+        <v>135100</v>
       </c>
       <c r="I17" s="3">
-        <v>84100</v>
+        <v>83300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-111300</v>
+        <v>-111800</v>
       </c>
       <c r="E18" s="3">
-        <v>-137600</v>
+        <v>-136200</v>
       </c>
       <c r="F18" s="3">
-        <v>-114800</v>
+        <v>-113700</v>
       </c>
       <c r="G18" s="3">
-        <v>-66000</v>
+        <v>-65400</v>
       </c>
       <c r="H18" s="3">
-        <v>-31500</v>
+        <v>-31200</v>
       </c>
       <c r="I18" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13600</v>
+        <v>15000</v>
       </c>
       <c r="E20" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="F20" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G20" s="3">
         <v>4600</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-91600</v>
+        <v>-90700</v>
       </c>
       <c r="E21" s="3">
-        <v>-123200</v>
+        <v>-121900</v>
       </c>
       <c r="F21" s="3">
-        <v>-107500</v>
+        <v>-106400</v>
       </c>
       <c r="G21" s="3">
-        <v>-59900</v>
+        <v>-59300</v>
       </c>
       <c r="H21" s="3">
-        <v>-27500</v>
+        <v>-27200</v>
       </c>
       <c r="I21" s="3">
-        <v>-22300</v>
+        <v>-22100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1201,13 +1201,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="E22" s="3">
         <v>4500</v>
       </c>
       <c r="F22" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="G22" s="3">
         <v>4300</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-104300</v>
+        <v>-103200</v>
       </c>
       <c r="E23" s="3">
-        <v>-132000</v>
+        <v>-130700</v>
       </c>
       <c r="F23" s="3">
-        <v>-114300</v>
+        <v>-113200</v>
       </c>
       <c r="G23" s="3">
-        <v>-65800</v>
+        <v>-65100</v>
       </c>
       <c r="H23" s="3">
-        <v>-28400</v>
+        <v>-28100</v>
       </c>
       <c r="I23" s="3">
-        <v>-22800</v>
+        <v>-22600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1282,7 +1282,7 @@
         <v>2000</v>
       </c>
       <c r="E24" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-106200</v>
+        <v>-105200</v>
       </c>
       <c r="E26" s="3">
-        <v>-133000</v>
+        <v>-131600</v>
       </c>
       <c r="F26" s="3">
-        <v>-114800</v>
+        <v>-113600</v>
       </c>
       <c r="G26" s="3">
-        <v>-66100</v>
+        <v>-65400</v>
       </c>
       <c r="H26" s="3">
-        <v>-30100</v>
+        <v>-29800</v>
       </c>
       <c r="I26" s="3">
-        <v>-23500</v>
+        <v>-23300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-103500</v>
+        <v>-102500</v>
       </c>
       <c r="E27" s="3">
-        <v>-128600</v>
+        <v>-127300</v>
       </c>
       <c r="F27" s="3">
-        <v>-114700</v>
+        <v>-113500</v>
       </c>
       <c r="G27" s="3">
-        <v>-71300</v>
+        <v>-70600</v>
       </c>
       <c r="H27" s="3">
-        <v>-34400</v>
+        <v>-34000</v>
       </c>
       <c r="I27" s="3">
-        <v>-19200</v>
+        <v>-19000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1477,13 +1477,13 @@
         <v>-900</v>
       </c>
       <c r="E29" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="F29" s="3">
-        <v>-137100</v>
+        <v>-135700</v>
       </c>
       <c r="G29" s="3">
-        <v>-20300</v>
+        <v>-20100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1591,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13600</v>
+        <v>-15000</v>
       </c>
       <c r="E32" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="F32" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="G32" s="3">
         <v>-4600</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-104400</v>
+        <v>-103300</v>
       </c>
       <c r="E33" s="3">
-        <v>-143000</v>
+        <v>-141500</v>
       </c>
       <c r="F33" s="3">
-        <v>-251700</v>
+        <v>-249200</v>
       </c>
       <c r="G33" s="3">
-        <v>-91500</v>
+        <v>-90600</v>
       </c>
       <c r="H33" s="3">
-        <v>-34400</v>
+        <v>-34000</v>
       </c>
       <c r="I33" s="3">
-        <v>-19200</v>
+        <v>-19000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-104400</v>
+        <v>-103300</v>
       </c>
       <c r="E35" s="3">
-        <v>-143000</v>
+        <v>-141500</v>
       </c>
       <c r="F35" s="3">
-        <v>-251700</v>
+        <v>-249200</v>
       </c>
       <c r="G35" s="3">
-        <v>-91500</v>
+        <v>-90600</v>
       </c>
       <c r="H35" s="3">
-        <v>-34400</v>
+        <v>-34000</v>
       </c>
       <c r="I35" s="3">
-        <v>-19200</v>
+        <v>-19000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,19 +1825,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>112500</v>
+        <v>111400</v>
       </c>
       <c r="E41" s="3">
-        <v>46400</v>
+        <v>45900</v>
       </c>
       <c r="F41" s="3">
-        <v>87500</v>
+        <v>86600</v>
       </c>
       <c r="G41" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="H41" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="I41" s="3">
         <v>5700</v>
@@ -1864,19 +1864,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33400</v>
+        <v>33000</v>
       </c>
       <c r="E42" s="3">
-        <v>72400</v>
+        <v>71700</v>
       </c>
       <c r="F42" s="3">
-        <v>84100</v>
+        <v>83200</v>
       </c>
       <c r="G42" s="3">
-        <v>207800</v>
+        <v>205700</v>
       </c>
       <c r="H42" s="3">
-        <v>56500</v>
+        <v>56000</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59300</v>
+        <v>58700</v>
       </c>
       <c r="E43" s="3">
-        <v>36800</v>
+        <v>36500</v>
       </c>
       <c r="F43" s="3">
-        <v>44900</v>
+        <v>44400</v>
       </c>
       <c r="G43" s="3">
-        <v>31900</v>
+        <v>31500</v>
       </c>
       <c r="H43" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="I43" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1942,16 +1942,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33400</v>
+        <v>33000</v>
       </c>
       <c r="E44" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="F44" s="3">
-        <v>21400</v>
+        <v>21100</v>
       </c>
       <c r="G44" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="H44" s="3">
         <v>3400</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30000</v>
+        <v>29700</v>
       </c>
       <c r="E45" s="3">
-        <v>133700</v>
+        <v>132300</v>
       </c>
       <c r="F45" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="G45" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="H45" s="3">
         <v>5700</v>
       </c>
       <c r="I45" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>268600</v>
+        <v>265800</v>
       </c>
       <c r="E46" s="3">
-        <v>326000</v>
+        <v>322600</v>
       </c>
       <c r="F46" s="3">
-        <v>265900</v>
+        <v>263200</v>
       </c>
       <c r="G46" s="3">
-        <v>291500</v>
+        <v>288600</v>
       </c>
       <c r="H46" s="3">
-        <v>85500</v>
+        <v>84600</v>
       </c>
       <c r="I46" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,13 +2059,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="E47" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F47" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2098,16 +2098,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24500</v>
+        <v>24200</v>
       </c>
       <c r="E48" s="3">
-        <v>28500</v>
+        <v>28200</v>
       </c>
       <c r="F48" s="3">
-        <v>21800</v>
+        <v>21500</v>
       </c>
       <c r="G48" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="H48" s="3">
         <v>2600</v>
@@ -2137,10 +2137,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="E49" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2257,7 +2257,7 @@
         <v>5000</v>
       </c>
       <c r="E52" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F52" s="3">
         <v>3500</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>326900</v>
+        <v>323600</v>
       </c>
       <c r="E54" s="3">
-        <v>378300</v>
+        <v>374400</v>
       </c>
       <c r="F54" s="3">
-        <v>297300</v>
+        <v>294300</v>
       </c>
       <c r="G54" s="3">
-        <v>299700</v>
+        <v>296600</v>
       </c>
       <c r="H54" s="3">
-        <v>89000</v>
+        <v>88100</v>
       </c>
       <c r="I54" s="3">
-        <v>23200</v>
+        <v>23000</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40600</v>
+        <v>40100</v>
       </c>
       <c r="E57" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="F57" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="G57" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="H57" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="I57" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2444,22 +2444,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>126100</v>
+        <v>124800</v>
       </c>
       <c r="E58" s="3">
-        <v>126100</v>
+        <v>124800</v>
       </c>
       <c r="F58" s="3">
-        <v>126100</v>
+        <v>124800</v>
       </c>
       <c r="G58" s="3">
-        <v>126100</v>
+        <v>124800</v>
       </c>
       <c r="H58" s="3">
-        <v>126100</v>
+        <v>124800</v>
       </c>
       <c r="I58" s="3">
-        <v>126100</v>
+        <v>124800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>289900</v>
+        <v>286900</v>
       </c>
       <c r="E59" s="3">
-        <v>286500</v>
+        <v>283600</v>
       </c>
       <c r="F59" s="3">
-        <v>341000</v>
+        <v>337500</v>
       </c>
       <c r="G59" s="3">
-        <v>117500</v>
+        <v>116300</v>
       </c>
       <c r="H59" s="3">
-        <v>55700</v>
+        <v>55100</v>
       </c>
       <c r="I59" s="3">
-        <v>31900</v>
+        <v>31500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>456500</v>
+        <v>451800</v>
       </c>
       <c r="E60" s="3">
-        <v>435700</v>
+        <v>431300</v>
       </c>
       <c r="F60" s="3">
-        <v>487400</v>
+        <v>482400</v>
       </c>
       <c r="G60" s="3">
-        <v>252600</v>
+        <v>250000</v>
       </c>
       <c r="H60" s="3">
-        <v>186800</v>
+        <v>184900</v>
       </c>
       <c r="I60" s="3">
-        <v>160800</v>
+        <v>159200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,10 +2561,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>75000</v>
+        <v>74300</v>
       </c>
       <c r="E61" s="3">
-        <v>36600</v>
+        <v>36300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="F62" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="G62" s="3">
         <v>3800</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>547400</v>
+        <v>541800</v>
       </c>
       <c r="E66" s="3">
-        <v>494200</v>
+        <v>489200</v>
       </c>
       <c r="F66" s="3">
-        <v>499600</v>
+        <v>494400</v>
       </c>
       <c r="G66" s="3">
-        <v>256600</v>
+        <v>253900</v>
       </c>
       <c r="H66" s="3">
-        <v>186900</v>
+        <v>185000</v>
       </c>
       <c r="I66" s="3">
-        <v>125900</v>
+        <v>124600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>66200</v>
+        <v>65500</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2967,23 +2967,23 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-766700</v>
       </c>
       <c r="E72" s="3">
-        <v>-670200</v>
+        <v>-663400</v>
       </c>
       <c r="F72" s="3">
-        <v>-527200</v>
+        <v>-521800</v>
       </c>
       <c r="G72" s="3">
-        <v>-275500</v>
+        <v>-272700</v>
       </c>
       <c r="H72" s="3">
-        <v>-184000</v>
+        <v>-182100</v>
       </c>
       <c r="I72" s="3">
-        <v>-114600</v>
+        <v>-113400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-220500</v>
+        <v>-218200</v>
       </c>
       <c r="E76" s="3">
-        <v>-115900</v>
+        <v>-114700</v>
       </c>
       <c r="F76" s="3">
-        <v>-202200</v>
+        <v>-200200</v>
       </c>
       <c r="G76" s="3">
-        <v>43100</v>
+        <v>42700</v>
       </c>
       <c r="H76" s="3">
-        <v>-164100</v>
+        <v>-162400</v>
       </c>
       <c r="I76" s="3">
-        <v>-102700</v>
+        <v>-101600</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-104400</v>
+        <v>-103300</v>
       </c>
       <c r="E81" s="3">
-        <v>-143000</v>
+        <v>-141500</v>
       </c>
       <c r="F81" s="3">
-        <v>-251700</v>
+        <v>-249200</v>
       </c>
       <c r="G81" s="3">
-        <v>-91500</v>
+        <v>-90600</v>
       </c>
       <c r="H81" s="3">
-        <v>-34400</v>
+        <v>-34000</v>
       </c>
       <c r="I81" s="3">
-        <v>-19200</v>
+        <v>-19000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3302,7 +3302,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="E83" s="3">
         <v>4300</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>76300</v>
+        <v>-85700</v>
       </c>
       <c r="E89" s="3">
-        <v>-193400</v>
+        <v>-191400</v>
       </c>
       <c r="F89" s="3">
-        <v>-46200</v>
+        <v>-45700</v>
       </c>
       <c r="G89" s="3">
-        <v>-53500</v>
+        <v>-52900</v>
       </c>
       <c r="H89" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="I89" s="3">
-        <v>-12500</v>
+        <v>-12400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,19 +3592,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10000</v>
+        <v>-9800</v>
       </c>
       <c r="E91" s="3">
-        <v>-9100</v>
+        <v>-9000</v>
       </c>
       <c r="F91" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="G91" s="3">
         <v>-2600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I91" s="3">
         <v>-1500</v>
@@ -3708,23 +3708,23 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>17900</v>
       </c>
       <c r="E94" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="F94" s="3">
-        <v>109300</v>
+        <v>108200</v>
       </c>
       <c r="G94" s="3">
-        <v>-155700</v>
+        <v>-154100</v>
       </c>
       <c r="H94" s="3">
-        <v>-53700</v>
+        <v>-53200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3920,23 +3920,23 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>26200</v>
       </c>
       <c r="E100" s="3">
-        <v>256200</v>
+        <v>253600</v>
       </c>
       <c r="F100" s="3">
         <v>3800</v>
       </c>
       <c r="G100" s="3">
-        <v>228000</v>
+        <v>225700</v>
       </c>
       <c r="H100" s="3">
-        <v>68200</v>
+        <v>67500</v>
       </c>
       <c r="I100" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3959,8 +3959,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>700</v>
       </c>
       <c r="E101" s="3">
         <v>-3000</v>
@@ -3998,17 +3998,17 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-40900</v>
       </c>
       <c r="E102" s="3">
-        <v>66500</v>
+        <v>65900</v>
       </c>
       <c r="F102" s="3">
-        <v>62600</v>
+        <v>62000</v>
       </c>
       <c r="G102" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="H102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>712600</v>
+        <v>690700</v>
       </c>
       <c r="E8" s="3">
-        <v>570800</v>
+        <v>553300</v>
       </c>
       <c r="F8" s="3">
-        <v>359200</v>
+        <v>348100</v>
       </c>
       <c r="G8" s="3">
-        <v>171600</v>
+        <v>166400</v>
       </c>
       <c r="H8" s="3">
-        <v>104000</v>
+        <v>100800</v>
       </c>
       <c r="I8" s="3">
-        <v>64800</v>
+        <v>62800</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>345000</v>
+        <v>334400</v>
       </c>
       <c r="E9" s="3">
-        <v>288100</v>
+        <v>279300</v>
       </c>
       <c r="F9" s="3">
-        <v>201800</v>
+        <v>195600</v>
       </c>
       <c r="G9" s="3">
-        <v>256800</v>
+        <v>248900</v>
       </c>
       <c r="H9" s="3">
-        <v>73200</v>
+        <v>71000</v>
       </c>
       <c r="I9" s="3">
-        <v>41800</v>
+        <v>40500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>367700</v>
+        <v>356400</v>
       </c>
       <c r="E10" s="3">
-        <v>282700</v>
+        <v>274000</v>
       </c>
       <c r="F10" s="3">
-        <v>157400</v>
+        <v>152600</v>
       </c>
       <c r="G10" s="3">
-        <v>-85200</v>
+        <v>-82600</v>
       </c>
       <c r="H10" s="3">
-        <v>30800</v>
+        <v>29800</v>
       </c>
       <c r="I10" s="3">
-        <v>23000</v>
+        <v>22300</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>114300</v>
+        <v>110700</v>
       </c>
       <c r="E12" s="3">
-        <v>86300</v>
+        <v>83700</v>
       </c>
       <c r="F12" s="3">
-        <v>52900</v>
+        <v>51300</v>
       </c>
       <c r="G12" s="3">
-        <v>38400</v>
+        <v>37200</v>
       </c>
       <c r="H12" s="3">
-        <v>26200</v>
+        <v>25400</v>
       </c>
       <c r="I12" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="F14" s="3">
-        <v>-7400</v>
+        <v>-7100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>824400</v>
+        <v>799000</v>
       </c>
       <c r="E17" s="3">
-        <v>707100</v>
+        <v>685300</v>
       </c>
       <c r="F17" s="3">
-        <v>472800</v>
+        <v>458300</v>
       </c>
       <c r="G17" s="3">
-        <v>237000</v>
+        <v>229700</v>
       </c>
       <c r="H17" s="3">
-        <v>135100</v>
+        <v>131000</v>
       </c>
       <c r="I17" s="3">
-        <v>83300</v>
+        <v>80700</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-111800</v>
+        <v>-108300</v>
       </c>
       <c r="E18" s="3">
-        <v>-136200</v>
+        <v>-132000</v>
       </c>
       <c r="F18" s="3">
-        <v>-113700</v>
+        <v>-110200</v>
       </c>
       <c r="G18" s="3">
-        <v>-65400</v>
+        <v>-63400</v>
       </c>
       <c r="H18" s="3">
-        <v>-31200</v>
+        <v>-30200</v>
       </c>
       <c r="I18" s="3">
-        <v>-18500</v>
+        <v>-17900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,22 +1123,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15000</v>
+        <v>14600</v>
       </c>
       <c r="E20" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="F20" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G20" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="H20" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I20" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-90700</v>
+        <v>-87900</v>
       </c>
       <c r="E21" s="3">
-        <v>-121900</v>
+        <v>-118200</v>
       </c>
       <c r="F21" s="3">
-        <v>-106400</v>
+        <v>-103200</v>
       </c>
       <c r="G21" s="3">
-        <v>-59300</v>
+        <v>-57500</v>
       </c>
       <c r="H21" s="3">
-        <v>-27200</v>
+        <v>-26400</v>
       </c>
       <c r="I21" s="3">
-        <v>-22100</v>
+        <v>-21400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1201,16 +1201,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="E22" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F22" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G22" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-103200</v>
+        <v>-100000</v>
       </c>
       <c r="E23" s="3">
-        <v>-130700</v>
+        <v>-126700</v>
       </c>
       <c r="F23" s="3">
-        <v>-113200</v>
+        <v>-109700</v>
       </c>
       <c r="G23" s="3">
-        <v>-65100</v>
+        <v>-63100</v>
       </c>
       <c r="H23" s="3">
-        <v>-28100</v>
+        <v>-27300</v>
       </c>
       <c r="I23" s="3">
-        <v>-22600</v>
+        <v>-21900</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1279,7 +1279,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E24" s="3">
         <v>900</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-105200</v>
+        <v>-101900</v>
       </c>
       <c r="E26" s="3">
-        <v>-131600</v>
+        <v>-127600</v>
       </c>
       <c r="F26" s="3">
-        <v>-113600</v>
+        <v>-110100</v>
       </c>
       <c r="G26" s="3">
-        <v>-65400</v>
+        <v>-63400</v>
       </c>
       <c r="H26" s="3">
-        <v>-29800</v>
+        <v>-28800</v>
       </c>
       <c r="I26" s="3">
-        <v>-23300</v>
+        <v>-22600</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-102500</v>
+        <v>-99300</v>
       </c>
       <c r="E27" s="3">
-        <v>-127300</v>
+        <v>-123400</v>
       </c>
       <c r="F27" s="3">
-        <v>-113500</v>
+        <v>-110000</v>
       </c>
       <c r="G27" s="3">
-        <v>-70600</v>
+        <v>-68400</v>
       </c>
       <c r="H27" s="3">
-        <v>-34000</v>
+        <v>-33000</v>
       </c>
       <c r="I27" s="3">
-        <v>-19000</v>
+        <v>-18400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E29" s="3">
-        <v>-14300</v>
+        <v>-13800</v>
       </c>
       <c r="F29" s="3">
-        <v>-135700</v>
+        <v>-131500</v>
       </c>
       <c r="G29" s="3">
-        <v>-20100</v>
+        <v>-19400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15000</v>
+        <v>-14600</v>
       </c>
       <c r="E32" s="3">
-        <v>-10000</v>
+        <v>-9700</v>
       </c>
       <c r="F32" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="G32" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="H32" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="I32" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-103300</v>
+        <v>-100200</v>
       </c>
       <c r="E33" s="3">
-        <v>-141500</v>
+        <v>-137200</v>
       </c>
       <c r="F33" s="3">
-        <v>-249200</v>
+        <v>-241500</v>
       </c>
       <c r="G33" s="3">
-        <v>-90600</v>
+        <v>-87800</v>
       </c>
       <c r="H33" s="3">
-        <v>-34000</v>
+        <v>-33000</v>
       </c>
       <c r="I33" s="3">
-        <v>-19000</v>
+        <v>-18400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-103300</v>
+        <v>-100200</v>
       </c>
       <c r="E35" s="3">
-        <v>-141500</v>
+        <v>-137200</v>
       </c>
       <c r="F35" s="3">
-        <v>-249200</v>
+        <v>-241500</v>
       </c>
       <c r="G35" s="3">
-        <v>-90600</v>
+        <v>-87800</v>
       </c>
       <c r="H35" s="3">
-        <v>-34000</v>
+        <v>-33000</v>
       </c>
       <c r="I35" s="3">
-        <v>-19000</v>
+        <v>-18400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>111400</v>
+        <v>108000</v>
       </c>
       <c r="E41" s="3">
-        <v>45900</v>
+        <v>44500</v>
       </c>
       <c r="F41" s="3">
-        <v>86600</v>
+        <v>83900</v>
       </c>
       <c r="G41" s="3">
-        <v>24600</v>
+        <v>23900</v>
       </c>
       <c r="H41" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="I41" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,19 +1864,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="E42" s="3">
-        <v>71700</v>
+        <v>69500</v>
       </c>
       <c r="F42" s="3">
-        <v>83200</v>
+        <v>80600</v>
       </c>
       <c r="G42" s="3">
-        <v>205700</v>
+        <v>199300</v>
       </c>
       <c r="H42" s="3">
-        <v>56000</v>
+        <v>54200</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>58700</v>
+        <v>56900</v>
       </c>
       <c r="E43" s="3">
-        <v>36500</v>
+        <v>35300</v>
       </c>
       <c r="F43" s="3">
-        <v>44400</v>
+        <v>43000</v>
       </c>
       <c r="G43" s="3">
-        <v>31500</v>
+        <v>30600</v>
       </c>
       <c r="H43" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="I43" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1942,19 +1942,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="E44" s="3">
-        <v>36300</v>
+        <v>35200</v>
       </c>
       <c r="F44" s="3">
-        <v>21100</v>
+        <v>20500</v>
       </c>
       <c r="G44" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="H44" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29700</v>
+        <v>28700</v>
       </c>
       <c r="E45" s="3">
-        <v>132300</v>
+        <v>128300</v>
       </c>
       <c r="F45" s="3">
-        <v>27900</v>
+        <v>27000</v>
       </c>
       <c r="G45" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="H45" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="I45" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>265800</v>
+        <v>257600</v>
       </c>
       <c r="E46" s="3">
-        <v>322600</v>
+        <v>312700</v>
       </c>
       <c r="F46" s="3">
-        <v>263200</v>
+        <v>255100</v>
       </c>
       <c r="G46" s="3">
-        <v>288600</v>
+        <v>279700</v>
       </c>
       <c r="H46" s="3">
-        <v>84600</v>
+        <v>82000</v>
       </c>
       <c r="I46" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,13 +2059,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="E47" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="F47" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24200</v>
+        <v>23500</v>
       </c>
       <c r="E48" s="3">
-        <v>28200</v>
+        <v>27300</v>
       </c>
       <c r="F48" s="3">
-        <v>21500</v>
+        <v>20900</v>
       </c>
       <c r="G48" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="H48" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2137,10 +2137,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="E49" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2254,16 +2254,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E52" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F52" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="G52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H52" s="3">
         <v>900</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>323600</v>
+        <v>313600</v>
       </c>
       <c r="E54" s="3">
-        <v>374400</v>
+        <v>362900</v>
       </c>
       <c r="F54" s="3">
-        <v>294300</v>
+        <v>285200</v>
       </c>
       <c r="G54" s="3">
-        <v>296600</v>
+        <v>287500</v>
       </c>
       <c r="H54" s="3">
-        <v>88100</v>
+        <v>85400</v>
       </c>
       <c r="I54" s="3">
-        <v>23000</v>
+        <v>22300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40100</v>
+        <v>38900</v>
       </c>
       <c r="E57" s="3">
-        <v>22900</v>
+        <v>22200</v>
       </c>
       <c r="F57" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="G57" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="H57" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I57" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2444,22 +2444,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>124800</v>
+        <v>121000</v>
       </c>
       <c r="E58" s="3">
-        <v>124800</v>
+        <v>121000</v>
       </c>
       <c r="F58" s="3">
-        <v>124800</v>
+        <v>121000</v>
       </c>
       <c r="G58" s="3">
-        <v>124800</v>
+        <v>121000</v>
       </c>
       <c r="H58" s="3">
-        <v>124800</v>
+        <v>121000</v>
       </c>
       <c r="I58" s="3">
-        <v>124800</v>
+        <v>121000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>286900</v>
+        <v>278100</v>
       </c>
       <c r="E59" s="3">
-        <v>283600</v>
+        <v>274900</v>
       </c>
       <c r="F59" s="3">
-        <v>337500</v>
+        <v>327100</v>
       </c>
       <c r="G59" s="3">
-        <v>116300</v>
+        <v>112700</v>
       </c>
       <c r="H59" s="3">
-        <v>55100</v>
+        <v>53400</v>
       </c>
       <c r="I59" s="3">
-        <v>31500</v>
+        <v>30600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>451800</v>
+        <v>437900</v>
       </c>
       <c r="E60" s="3">
-        <v>431300</v>
+        <v>418000</v>
       </c>
       <c r="F60" s="3">
-        <v>482400</v>
+        <v>467600</v>
       </c>
       <c r="G60" s="3">
-        <v>250000</v>
+        <v>242300</v>
       </c>
       <c r="H60" s="3">
-        <v>184900</v>
+        <v>179200</v>
       </c>
       <c r="I60" s="3">
-        <v>159200</v>
+        <v>154300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,10 +2561,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>74300</v>
+        <v>72000</v>
       </c>
       <c r="E61" s="3">
-        <v>36300</v>
+        <v>35100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="E62" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="F62" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="G62" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>541800</v>
+        <v>525100</v>
       </c>
       <c r="E66" s="3">
-        <v>489200</v>
+        <v>474100</v>
       </c>
       <c r="F66" s="3">
-        <v>494400</v>
+        <v>479200</v>
       </c>
       <c r="G66" s="3">
-        <v>253900</v>
+        <v>246100</v>
       </c>
       <c r="H66" s="3">
-        <v>185000</v>
+        <v>179300</v>
       </c>
       <c r="I66" s="3">
-        <v>124600</v>
+        <v>120800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>65500</v>
+        <v>63500</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-766700</v>
+        <v>-743200</v>
       </c>
       <c r="E72" s="3">
-        <v>-663400</v>
+        <v>-643000</v>
       </c>
       <c r="F72" s="3">
-        <v>-521800</v>
+        <v>-505800</v>
       </c>
       <c r="G72" s="3">
-        <v>-272700</v>
+        <v>-264300</v>
       </c>
       <c r="H72" s="3">
-        <v>-182100</v>
+        <v>-176500</v>
       </c>
       <c r="I72" s="3">
-        <v>-113400</v>
+        <v>-110000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-218200</v>
+        <v>-211500</v>
       </c>
       <c r="E76" s="3">
-        <v>-114700</v>
+        <v>-111200</v>
       </c>
       <c r="F76" s="3">
-        <v>-200200</v>
+        <v>-194000</v>
       </c>
       <c r="G76" s="3">
-        <v>42700</v>
+        <v>41300</v>
       </c>
       <c r="H76" s="3">
-        <v>-162400</v>
+        <v>-157400</v>
       </c>
       <c r="I76" s="3">
-        <v>-101600</v>
+        <v>-98500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-103300</v>
+        <v>-100200</v>
       </c>
       <c r="E81" s="3">
-        <v>-141500</v>
+        <v>-137200</v>
       </c>
       <c r="F81" s="3">
-        <v>-249200</v>
+        <v>-241500</v>
       </c>
       <c r="G81" s="3">
-        <v>-90600</v>
+        <v>-87800</v>
       </c>
       <c r="H81" s="3">
-        <v>-34000</v>
+        <v>-33000</v>
       </c>
       <c r="I81" s="3">
-        <v>-19000</v>
+        <v>-18400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3302,13 +3302,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="E83" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="F83" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G83" s="3">
         <v>1500</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-85700</v>
+        <v>-83100</v>
       </c>
       <c r="E89" s="3">
-        <v>-191400</v>
+        <v>-185500</v>
       </c>
       <c r="F89" s="3">
-        <v>-45700</v>
+        <v>-44300</v>
       </c>
       <c r="G89" s="3">
-        <v>-52900</v>
+        <v>-51300</v>
       </c>
       <c r="H89" s="3">
-        <v>-14300</v>
+        <v>-13800</v>
       </c>
       <c r="I89" s="3">
-        <v>-12400</v>
+        <v>-12000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,16 +3592,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="E91" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="F91" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="H91" s="3">
         <v>-1900</v>
@@ -3709,19 +3709,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>17900</v>
+        <v>17300</v>
       </c>
       <c r="E94" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="F94" s="3">
-        <v>108200</v>
+        <v>104800</v>
       </c>
       <c r="G94" s="3">
-        <v>-154100</v>
+        <v>-149400</v>
       </c>
       <c r="H94" s="3">
-        <v>-53200</v>
+        <v>-51500</v>
       </c>
       <c r="I94" s="3">
         <v>-1500</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>26200</v>
+        <v>25400</v>
       </c>
       <c r="E100" s="3">
-        <v>253600</v>
+        <v>245800</v>
       </c>
       <c r="F100" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G100" s="3">
-        <v>225700</v>
+        <v>218700</v>
       </c>
       <c r="H100" s="3">
-        <v>67500</v>
+        <v>65500</v>
       </c>
       <c r="I100" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3960,13 +3960,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E101" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="F101" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-40900</v>
+        <v>-39700</v>
       </c>
       <c r="E102" s="3">
-        <v>65900</v>
+        <v>63800</v>
       </c>
       <c r="F102" s="3">
-        <v>62000</v>
+        <v>60100</v>
       </c>
       <c r="G102" s="3">
-        <v>18700</v>
+        <v>18100</v>
       </c>
       <c r="H102" s="3">
         <v>300</v>
       </c>
       <c r="I102" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DAO_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>690700</v>
+        <v>692200</v>
       </c>
       <c r="E8" s="3">
-        <v>553300</v>
+        <v>554500</v>
       </c>
       <c r="F8" s="3">
-        <v>348100</v>
+        <v>348900</v>
       </c>
       <c r="G8" s="3">
-        <v>166400</v>
+        <v>166700</v>
       </c>
       <c r="H8" s="3">
-        <v>100800</v>
+        <v>101000</v>
       </c>
       <c r="I8" s="3">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>334400</v>
+        <v>335100</v>
       </c>
       <c r="E9" s="3">
-        <v>279300</v>
+        <v>279900</v>
       </c>
       <c r="F9" s="3">
-        <v>195600</v>
+        <v>196000</v>
       </c>
       <c r="G9" s="3">
-        <v>248900</v>
+        <v>249500</v>
       </c>
       <c r="H9" s="3">
-        <v>71000</v>
+        <v>71100</v>
       </c>
       <c r="I9" s="3">
-        <v>40500</v>
+        <v>40600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>356400</v>
+        <v>357100</v>
       </c>
       <c r="E10" s="3">
-        <v>274000</v>
+        <v>274600</v>
       </c>
       <c r="F10" s="3">
-        <v>152600</v>
+        <v>152900</v>
       </c>
       <c r="G10" s="3">
-        <v>-82600</v>
+        <v>-82700</v>
       </c>
       <c r="H10" s="3">
-        <v>29800</v>
+        <v>29900</v>
       </c>
       <c r="I10" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>110700</v>
+        <v>111000</v>
       </c>
       <c r="E12" s="3">
-        <v>83700</v>
+        <v>83900</v>
       </c>
       <c r="F12" s="3">
-        <v>51300</v>
+        <v>51400</v>
       </c>
       <c r="G12" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="H12" s="3">
         <v>25400</v>
       </c>
       <c r="I12" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -942,7 +942,7 @@
         <v>9900</v>
       </c>
       <c r="F14" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>799000</v>
+        <v>800800</v>
       </c>
       <c r="E17" s="3">
-        <v>685300</v>
+        <v>686800</v>
       </c>
       <c r="F17" s="3">
-        <v>458300</v>
+        <v>459300</v>
       </c>
       <c r="G17" s="3">
-        <v>229700</v>
+        <v>230200</v>
       </c>
       <c r="H17" s="3">
-        <v>131000</v>
+        <v>131300</v>
       </c>
       <c r="I17" s="3">
-        <v>80700</v>
+        <v>80900</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-108300</v>
+        <v>-108600</v>
       </c>
       <c r="E18" s="3">
-        <v>-132000</v>
+        <v>-132300</v>
       </c>
       <c r="F18" s="3">
-        <v>-110200</v>
+        <v>-110400</v>
       </c>
       <c r="G18" s="3">
-        <v>-63400</v>
+        <v>-63500</v>
       </c>
       <c r="H18" s="3">
-        <v>-30200</v>
+        <v>-30300</v>
       </c>
       <c r="I18" s="3">
-        <v>-17900</v>
+        <v>-18000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1126,7 +1126,7 @@
         <v>14600</v>
       </c>
       <c r="E20" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="F20" s="3">
         <v>4800</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-87900</v>
+        <v>-88100</v>
       </c>
       <c r="E21" s="3">
-        <v>-118200</v>
+        <v>-118400</v>
       </c>
       <c r="F21" s="3">
-        <v>-103200</v>
+        <v>-103400</v>
       </c>
       <c r="G21" s="3">
-        <v>-57500</v>
+        <v>-57600</v>
       </c>
       <c r="H21" s="3">
-        <v>-26400</v>
+        <v>-26500</v>
       </c>
       <c r="I21" s="3">
-        <v>-21400</v>
+        <v>-21500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1240,16 +1240,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100000</v>
+        <v>-100200</v>
       </c>
       <c r="E23" s="3">
-        <v>-126700</v>
+        <v>-127000</v>
       </c>
       <c r="F23" s="3">
-        <v>-109700</v>
+        <v>-109900</v>
       </c>
       <c r="G23" s="3">
-        <v>-63100</v>
+        <v>-63200</v>
       </c>
       <c r="H23" s="3">
         <v>-27300</v>
@@ -1357,19 +1357,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-101900</v>
+        <v>-102100</v>
       </c>
       <c r="E26" s="3">
-        <v>-127600</v>
+        <v>-127900</v>
       </c>
       <c r="F26" s="3">
-        <v>-110100</v>
+        <v>-110300</v>
       </c>
       <c r="G26" s="3">
-        <v>-63400</v>
+        <v>-63600</v>
       </c>
       <c r="H26" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="I26" s="3">
         <v>-22600</v>
@@ -1396,16 +1396,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-99300</v>
+        <v>-99500</v>
       </c>
       <c r="E27" s="3">
-        <v>-123400</v>
+        <v>-123600</v>
       </c>
       <c r="F27" s="3">
-        <v>-110000</v>
+        <v>-110300</v>
       </c>
       <c r="G27" s="3">
-        <v>-68400</v>
+        <v>-68500</v>
       </c>
       <c r="H27" s="3">
         <v>-33000</v>
@@ -1480,10 +1480,10 @@
         <v>-13800</v>
       </c>
       <c r="F29" s="3">
-        <v>-131500</v>
+        <v>-131800</v>
       </c>
       <c r="G29" s="3">
-        <v>-19400</v>
+        <v>-19500</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1594,7 +1594,7 @@
         <v>-14600</v>
       </c>
       <c r="E32" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="F32" s="3">
         <v>-4800</v>
@@ -1630,16 +1630,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100200</v>
+        <v>-100400</v>
       </c>
       <c r="E33" s="3">
-        <v>-137200</v>
+        <v>-137500</v>
       </c>
       <c r="F33" s="3">
-        <v>-241500</v>
+        <v>-242000</v>
       </c>
       <c r="G33" s="3">
-        <v>-87800</v>
+        <v>-88000</v>
       </c>
       <c r="H33" s="3">
         <v>-33000</v>
@@ -1708,16 +1708,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100200</v>
+        <v>-100400</v>
       </c>
       <c r="E35" s="3">
-        <v>-137200</v>
+        <v>-137500</v>
       </c>
       <c r="F35" s="3">
-        <v>-241500</v>
+        <v>-242000</v>
       </c>
       <c r="G35" s="3">
-        <v>-87800</v>
+        <v>-88000</v>
       </c>
       <c r="H35" s="3">
         <v>-33000</v>
@@ -1825,13 +1825,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>108000</v>
+        <v>108200</v>
       </c>
       <c r="E41" s="3">
-        <v>44500</v>
+        <v>44600</v>
       </c>
       <c r="F41" s="3">
-        <v>83900</v>
+        <v>84100</v>
       </c>
       <c r="G41" s="3">
         <v>23900</v>
@@ -1864,19 +1864,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32000</v>
+        <v>32100</v>
       </c>
       <c r="E42" s="3">
-        <v>69500</v>
+        <v>69600</v>
       </c>
       <c r="F42" s="3">
-        <v>80600</v>
+        <v>80800</v>
       </c>
       <c r="G42" s="3">
-        <v>199300</v>
+        <v>199800</v>
       </c>
       <c r="H42" s="3">
-        <v>54200</v>
+        <v>54400</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>56900</v>
+        <v>57000</v>
       </c>
       <c r="E43" s="3">
-        <v>35300</v>
+        <v>35400</v>
       </c>
       <c r="F43" s="3">
-        <v>43000</v>
+        <v>43100</v>
       </c>
       <c r="G43" s="3">
         <v>30600</v>
       </c>
       <c r="H43" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="I43" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1942,10 +1942,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>32000</v>
+        <v>32100</v>
       </c>
       <c r="E44" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="F44" s="3">
         <v>20500</v>
@@ -1981,13 +1981,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28700</v>
+        <v>28800</v>
       </c>
       <c r="E45" s="3">
-        <v>128300</v>
+        <v>128500</v>
       </c>
       <c r="F45" s="3">
-        <v>27000</v>
+        <v>27100</v>
       </c>
       <c r="G45" s="3">
         <v>15800</v>
@@ -2020,19 +2020,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>257600</v>
+        <v>258200</v>
       </c>
       <c r="E46" s="3">
-        <v>312700</v>
+        <v>313400</v>
       </c>
       <c r="F46" s="3">
-        <v>255100</v>
+        <v>255700</v>
       </c>
       <c r="G46" s="3">
-        <v>279700</v>
+        <v>280300</v>
       </c>
       <c r="H46" s="3">
-        <v>82000</v>
+        <v>82200</v>
       </c>
       <c r="I46" s="3">
         <v>20000</v>
@@ -2101,7 +2101,7 @@
         <v>23500</v>
       </c>
       <c r="E48" s="3">
-        <v>27300</v>
+        <v>27400</v>
       </c>
       <c r="F48" s="3">
         <v>20900</v>
@@ -2137,10 +2137,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="E49" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2332,19 +2332,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>313600</v>
+        <v>314300</v>
       </c>
       <c r="E54" s="3">
-        <v>362900</v>
+        <v>363700</v>
       </c>
       <c r="F54" s="3">
-        <v>285200</v>
+        <v>285900</v>
       </c>
       <c r="G54" s="3">
-        <v>287500</v>
+        <v>288100</v>
       </c>
       <c r="H54" s="3">
-        <v>85400</v>
+        <v>85600</v>
       </c>
       <c r="I54" s="3">
         <v>22300</v>
@@ -2405,7 +2405,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>38900</v>
+        <v>39000</v>
       </c>
       <c r="E57" s="3">
         <v>22200</v>
@@ -2414,13 +2414,13 @@
         <v>19500</v>
       </c>
       <c r="G57" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="H57" s="3">
         <v>4800</v>
       </c>
       <c r="I57" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2444,22 +2444,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>121000</v>
+        <v>121200</v>
       </c>
       <c r="E58" s="3">
-        <v>121000</v>
+        <v>121200</v>
       </c>
       <c r="F58" s="3">
-        <v>121000</v>
+        <v>121200</v>
       </c>
       <c r="G58" s="3">
-        <v>121000</v>
+        <v>121200</v>
       </c>
       <c r="H58" s="3">
-        <v>121000</v>
+        <v>121200</v>
       </c>
       <c r="I58" s="3">
-        <v>121000</v>
+        <v>121200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,19 +2483,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>278100</v>
+        <v>278700</v>
       </c>
       <c r="E59" s="3">
-        <v>274900</v>
+        <v>275500</v>
       </c>
       <c r="F59" s="3">
-        <v>327100</v>
+        <v>327800</v>
       </c>
       <c r="G59" s="3">
-        <v>112700</v>
+        <v>113000</v>
       </c>
       <c r="H59" s="3">
-        <v>53400</v>
+        <v>53600</v>
       </c>
       <c r="I59" s="3">
         <v>30600</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>437900</v>
+        <v>438900</v>
       </c>
       <c r="E60" s="3">
-        <v>418000</v>
+        <v>418900</v>
       </c>
       <c r="F60" s="3">
-        <v>467600</v>
+        <v>468600</v>
       </c>
       <c r="G60" s="3">
-        <v>242300</v>
+        <v>242800</v>
       </c>
       <c r="H60" s="3">
-        <v>179200</v>
+        <v>179600</v>
       </c>
       <c r="I60" s="3">
-        <v>154300</v>
+        <v>154600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,10 +2561,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>72000</v>
+        <v>72100</v>
       </c>
       <c r="E61" s="3">
-        <v>35100</v>
+        <v>35200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>10400</v>
       </c>
       <c r="F62" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="G62" s="3">
         <v>3700</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>525100</v>
+        <v>526300</v>
       </c>
       <c r="E66" s="3">
-        <v>474100</v>
+        <v>475200</v>
       </c>
       <c r="F66" s="3">
-        <v>479200</v>
+        <v>480300</v>
       </c>
       <c r="G66" s="3">
-        <v>246100</v>
+        <v>246700</v>
       </c>
       <c r="H66" s="3">
-        <v>179300</v>
+        <v>179700</v>
       </c>
       <c r="I66" s="3">
-        <v>120800</v>
+        <v>121100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>63500</v>
+        <v>63600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-743200</v>
+        <v>-744800</v>
       </c>
       <c r="E72" s="3">
-        <v>-643000</v>
+        <v>-644400</v>
       </c>
       <c r="F72" s="3">
-        <v>-505800</v>
+        <v>-506900</v>
       </c>
       <c r="G72" s="3">
-        <v>-264300</v>
+        <v>-264900</v>
       </c>
       <c r="H72" s="3">
-        <v>-176500</v>
+        <v>-176900</v>
       </c>
       <c r="I72" s="3">
-        <v>-110000</v>
+        <v>-110200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-211500</v>
+        <v>-212000</v>
       </c>
       <c r="E76" s="3">
-        <v>-111200</v>
+        <v>-111400</v>
       </c>
       <c r="F76" s="3">
-        <v>-194000</v>
+        <v>-194400</v>
       </c>
       <c r="G76" s="3">
-        <v>41300</v>
+        <v>41400</v>
       </c>
       <c r="H76" s="3">
-        <v>-157400</v>
+        <v>-157700</v>
       </c>
       <c r="I76" s="3">
-        <v>-98500</v>
+        <v>-98700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,16 +3246,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100200</v>
+        <v>-100400</v>
       </c>
       <c r="E81" s="3">
-        <v>-137200</v>
+        <v>-137500</v>
       </c>
       <c r="F81" s="3">
-        <v>-241500</v>
+        <v>-242000</v>
       </c>
       <c r="G81" s="3">
-        <v>-87800</v>
+        <v>-88000</v>
       </c>
       <c r="H81" s="3">
         <v>-33000</v>
@@ -3305,7 +3305,7 @@
         <v>5800</v>
       </c>
       <c r="E83" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F83" s="3">
         <v>2200</v>
@@ -3536,19 +3536,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-83100</v>
+        <v>-83300</v>
       </c>
       <c r="E89" s="3">
-        <v>-185500</v>
+        <v>-185900</v>
       </c>
       <c r="F89" s="3">
-        <v>-44300</v>
+        <v>-44400</v>
       </c>
       <c r="G89" s="3">
-        <v>-51300</v>
+        <v>-51400</v>
       </c>
       <c r="H89" s="3">
-        <v>-13800</v>
+        <v>-13900</v>
       </c>
       <c r="I89" s="3">
         <v>-12000</v>
@@ -3595,7 +3595,7 @@
         <v>-9500</v>
       </c>
       <c r="E91" s="3">
-        <v>-8700</v>
+        <v>-8800</v>
       </c>
       <c r="F91" s="3">
         <v>-5100</v>
@@ -3709,19 +3709,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="E94" s="3">
         <v>6500</v>
       </c>
       <c r="F94" s="3">
-        <v>104800</v>
+        <v>105100</v>
       </c>
       <c r="G94" s="3">
-        <v>-149400</v>
+        <v>-149700</v>
       </c>
       <c r="H94" s="3">
-        <v>-51500</v>
+        <v>-51600</v>
       </c>
       <c r="I94" s="3">
         <v>-1500</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="E100" s="3">
-        <v>245800</v>
+        <v>246300</v>
       </c>
       <c r="F100" s="3">
         <v>3700</v>
       </c>
       <c r="G100" s="3">
-        <v>218700</v>
+        <v>219200</v>
       </c>
       <c r="H100" s="3">
-        <v>65500</v>
+        <v>65600</v>
       </c>
       <c r="I100" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3966,7 +3966,7 @@
         <v>-2900</v>
       </c>
       <c r="F101" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-39700</v>
+        <v>-39800</v>
       </c>
       <c r="E102" s="3">
-        <v>63800</v>
+        <v>64000</v>
       </c>
       <c r="F102" s="3">
-        <v>60100</v>
+        <v>60200</v>
       </c>
       <c r="G102" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="H102" s="3">
         <v>300</v>
       </c>
       <c r="I102" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
